--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>TotalScore</t>
+          <t>TotalRiskScore</t>
         </is>
       </c>
     </row>

--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -858,13 +858,13 @@
         <v>65.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.1</v>
+        <v>18.6</v>
       </c>
       <c r="AL3" t="n">
         <v>18.1</v>
       </c>
       <c r="AM3" t="n">
-        <v>44.6</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="4">
@@ -1469,7 +1469,7 @@
         <v>54.4</v>
       </c>
       <c r="AM8" t="n">
-        <v>83.8</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="9">
@@ -1705,13 +1705,13 @@
         <v>11.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="AL10" t="n">
         <v>87.7</v>
       </c>
       <c r="AM10" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="11">
@@ -1947,7 +1947,7 @@
         <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>36.8</v>
+        <v>35.3</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2310,7 +2310,7 @@
         <v>72.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="AL15" t="n">
         <v>95</v>
@@ -2437,7 +2437,7 @@
         <v>43.6</v>
       </c>
       <c r="AM16" t="n">
-        <v>52.5</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="17">
@@ -2558,7 +2558,7 @@
         <v>52</v>
       </c>
       <c r="AM17" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3520,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>46.6</v>
+        <v>47.1</v>
       </c>
       <c r="AL25" t="n">
         <v>72.5</v>
@@ -3641,13 +3641,13 @@
         <v>85.8</v>
       </c>
       <c r="AK26" t="n">
-        <v>87.3</v>
+        <v>88.2</v>
       </c>
       <c r="AL26" t="n">
         <v>5.9</v>
       </c>
       <c r="AM26" t="n">
-        <v>91.7</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="27">
@@ -3768,7 +3768,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="AM27" t="n">
-        <v>65.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="28">
@@ -4125,13 +4125,13 @@
         <v>63.2</v>
       </c>
       <c r="AK30" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="AL30" t="n">
         <v>95</v>
       </c>
       <c r="AM30" t="n">
-        <v>59.8</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="31">
@@ -5093,13 +5093,13 @@
         <v>10.3</v>
       </c>
       <c r="AK38" t="n">
-        <v>57.4</v>
+        <v>57.8</v>
       </c>
       <c r="AL38" t="n">
         <v>83.8</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="39">
@@ -5335,13 +5335,13 @@
         <v>81.90000000000001</v>
       </c>
       <c r="AK40" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="AL40" t="n">
         <v>13.7</v>
       </c>
       <c r="AM40" t="n">
-        <v>70.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -7634,13 +7634,13 @@
         <v>28.9</v>
       </c>
       <c r="AK59" t="n">
-        <v>71.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="AL59" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="AM59" t="n">
-        <v>43.1</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="60">
@@ -7761,7 +7761,7 @@
         <v>41.7</v>
       </c>
       <c r="AM60" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -7876,13 +7876,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AK61" t="n">
-        <v>41.7</v>
+        <v>42.2</v>
       </c>
       <c r="AL61" t="n">
         <v>84.8</v>
       </c>
       <c r="AM61" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="62">
@@ -7997,13 +7997,13 @@
         <v>81.40000000000001</v>
       </c>
       <c r="AK62" t="n">
-        <v>78.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AL62" t="n">
         <v>23</v>
       </c>
       <c r="AM62" t="n">
-        <v>84.8</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="63">
@@ -8360,7 +8360,7 @@
         <v>17.2</v>
       </c>
       <c r="AK65" t="n">
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="AL65" t="n">
         <v>95</v>
@@ -8602,13 +8602,13 @@
         <v>30.9</v>
       </c>
       <c r="AK67" t="n">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="AL67" t="n">
         <v>89.2</v>
       </c>
       <c r="AM67" t="n">
-        <v>33.3</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="68">
@@ -8723,13 +8723,13 @@
         <v>7.4</v>
       </c>
       <c r="AK68" t="n">
-        <v>60.3</v>
+        <v>60.8</v>
       </c>
       <c r="AL68" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="AM68" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="69">
@@ -8844,13 +8844,13 @@
         <v>61.3</v>
       </c>
       <c r="AK69" t="n">
-        <v>70.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AL69" t="n">
         <v>39.2</v>
       </c>
       <c r="AM69" t="n">
-        <v>67.2</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -8965,13 +8965,13 @@
         <v>16.2</v>
       </c>
       <c r="AK70" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AL70" t="n">
         <v>26.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>18.6</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="71">
@@ -9086,13 +9086,13 @@
         <v>21.1</v>
       </c>
       <c r="AK71" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="AL71" t="n">
         <v>74.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="72">
@@ -9328,13 +9328,13 @@
         <v>58.3</v>
       </c>
       <c r="AK73" t="n">
-        <v>88.2</v>
+        <v>89.2</v>
       </c>
       <c r="AL73" t="n">
         <v>91.7</v>
       </c>
       <c r="AM73" t="n">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="74">
@@ -9570,13 +9570,13 @@
         <v>54.9</v>
       </c>
       <c r="AK75" t="n">
-        <v>80.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="AL75" t="n">
         <v>40.7</v>
       </c>
       <c r="AM75" t="n">
-        <v>68.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -9812,7 +9812,7 @@
         <v>5</v>
       </c>
       <c r="AK77" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="AL77" t="n">
         <v>12.7</v>
@@ -10901,13 +10901,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="AK86" t="n">
-        <v>52.5</v>
+        <v>52.9</v>
       </c>
       <c r="AL86" t="n">
         <v>20.1</v>
       </c>
       <c r="AM86" t="n">
-        <v>63.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="87">
@@ -11385,7 +11385,7 @@
         <v>20.1</v>
       </c>
       <c r="AK90" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="AL90" t="n">
         <v>52</v>
@@ -11990,13 +11990,13 @@
         <v>34.8</v>
       </c>
       <c r="AK95" t="n">
-        <v>79.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AL95" t="n">
         <v>26</v>
       </c>
       <c r="AM95" t="n">
-        <v>54.4</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="96">

--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -858,13 +858,13 @@
         <v>65.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="AL3" t="n">
         <v>18.1</v>
       </c>
       <c r="AM3" t="n">
-        <v>45.1</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="4">
@@ -1469,7 +1469,7 @@
         <v>54.4</v>
       </c>
       <c r="AM8" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="9">
@@ -1705,13 +1705,13 @@
         <v>11.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="AL10" t="n">
         <v>87.7</v>
       </c>
       <c r="AM10" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="11">
@@ -1947,7 +1947,7 @@
         <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>35.3</v>
+        <v>35.8</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2310,13 +2310,13 @@
         <v>72.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="AL15" t="n">
         <v>95</v>
       </c>
       <c r="AM15" t="n">
-        <v>37.3</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="16">
@@ -2437,7 +2437,7 @@
         <v>43.6</v>
       </c>
       <c r="AM16" t="n">
-        <v>52.9</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="17">
@@ -2558,7 +2558,7 @@
         <v>52</v>
       </c>
       <c r="AM17" t="n">
-        <v>81.40000000000001</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3520,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>47.1</v>
+        <v>46.6</v>
       </c>
       <c r="AL25" t="n">
         <v>72.5</v>
@@ -3641,13 +3641,13 @@
         <v>85.8</v>
       </c>
       <c r="AK26" t="n">
-        <v>88.2</v>
+        <v>87.7</v>
       </c>
       <c r="AL26" t="n">
         <v>5.9</v>
       </c>
       <c r="AM26" t="n">
-        <v>92.2</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="27">
@@ -3768,7 +3768,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="AM27" t="n">
-        <v>65.7</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="28">
@@ -4131,7 +4131,7 @@
         <v>95</v>
       </c>
       <c r="AM30" t="n">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="31">
@@ -5093,7 +5093,7 @@
         <v>10.3</v>
       </c>
       <c r="AK38" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
       <c r="AL38" t="n">
         <v>83.8</v>
@@ -5335,13 +5335,13 @@
         <v>81.90000000000001</v>
       </c>
       <c r="AK40" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="AL40" t="n">
         <v>13.7</v>
       </c>
       <c r="AM40" t="n">
-        <v>71.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5583,7 +5583,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AM42" t="n">
-        <v>86.8</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="43">
@@ -7271,7 +7271,7 @@
         <v>82.8</v>
       </c>
       <c r="AK56" t="n">
-        <v>35.8</v>
+        <v>36.8</v>
       </c>
       <c r="AL56" t="n">
         <v>67.59999999999999</v>
@@ -7634,13 +7634,13 @@
         <v>28.9</v>
       </c>
       <c r="AK59" t="n">
-        <v>72.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AL59" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="AM59" t="n">
-        <v>44.1</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="60">
@@ -7755,13 +7755,13 @@
         <v>34.3</v>
       </c>
       <c r="AK60" t="n">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="n">
         <v>41.7</v>
       </c>
       <c r="AM60" t="n">
-        <v>51</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="61">
@@ -7876,13 +7876,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AK61" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="AL61" t="n">
         <v>84.8</v>
       </c>
       <c r="AM61" t="n">
-        <v>17.6</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="62">
@@ -8003,7 +8003,7 @@
         <v>23</v>
       </c>
       <c r="AM62" t="n">
-        <v>87.3</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="63">
@@ -8245,7 +8245,7 @@
         <v>37.7</v>
       </c>
       <c r="AM64" t="n">
-        <v>85.8</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="65">
@@ -8360,7 +8360,7 @@
         <v>17.2</v>
       </c>
       <c r="AK65" t="n">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="AL65" t="n">
         <v>95</v>
@@ -8602,13 +8602,13 @@
         <v>30.9</v>
       </c>
       <c r="AK67" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="AL67" t="n">
         <v>89.2</v>
       </c>
       <c r="AM67" t="n">
-        <v>32.4</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="68">
@@ -8723,13 +8723,13 @@
         <v>7.4</v>
       </c>
       <c r="AK68" t="n">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
       <c r="AL68" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="AM68" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -8850,7 +8850,7 @@
         <v>39.2</v>
       </c>
       <c r="AM69" t="n">
-        <v>67.59999999999999</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="70">
@@ -8965,13 +8965,13 @@
         <v>16.2</v>
       </c>
       <c r="AK70" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AL70" t="n">
         <v>26.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="71">
@@ -9086,13 +9086,13 @@
         <v>21.1</v>
       </c>
       <c r="AK71" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="AL71" t="n">
         <v>74.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="72">
@@ -9334,7 +9334,7 @@
         <v>91.7</v>
       </c>
       <c r="AM73" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
@@ -9570,13 +9570,13 @@
         <v>54.9</v>
       </c>
       <c r="AK75" t="n">
-        <v>81.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AL75" t="n">
         <v>40.7</v>
       </c>
       <c r="AM75" t="n">
-        <v>69.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -9812,7 +9812,7 @@
         <v>5</v>
       </c>
       <c r="AK77" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="AL77" t="n">
         <v>12.7</v>
@@ -10901,13 +10901,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="AK86" t="n">
-        <v>52.9</v>
+        <v>52.5</v>
       </c>
       <c r="AL86" t="n">
         <v>20.1</v>
       </c>
       <c r="AM86" t="n">
-        <v>63.7</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="87">
@@ -11385,7 +11385,7 @@
         <v>20.1</v>
       </c>
       <c r="AK90" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="AL90" t="n">
         <v>52</v>
@@ -11990,13 +11990,13 @@
         <v>34.8</v>
       </c>
       <c r="AK95" t="n">
-        <v>80.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AL95" t="n">
         <v>26</v>
       </c>
       <c r="AM95" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="96">

--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM103"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,20 +606,25 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>Pruritus</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>Dysbiosis</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>HealthyDistance</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Diversity</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>TotalRiskScore</t>
         </is>
@@ -683,7 +688,7 @@
         <v>56.9</v>
       </c>
       <c r="S2" t="n">
-        <v>79.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="T2" t="n">
         <v>43.6</v>
@@ -710,7 +715,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>58.8</v>
       </c>
       <c r="AC2" t="n">
         <v>73</v>
@@ -734,16 +739,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40.7</v>
+        <v>7.4</v>
       </c>
       <c r="AK2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="AL2" t="n">
         <v>32.8</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="AM2" t="n">
-        <v>31.4</v>
+      <c r="AN2" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="3">
@@ -807,13 +815,13 @@
         <v>73</v>
       </c>
       <c r="T3" t="n">
-        <v>60.8</v>
+        <v>82.8</v>
       </c>
       <c r="U3" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="W3" t="n">
         <v>63.7</v>
@@ -831,7 +839,7 @@
         <v>46.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.2</v>
+        <v>89.2</v>
       </c>
       <c r="AC3" t="n">
         <v>60.8</v>
@@ -855,16 +863,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65.7</v>
+        <v>63.2</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.1</v>
+        <v>75.5</v>
       </c>
       <c r="AL3" t="n">
         <v>18.1</v>
       </c>
       <c r="AM3" t="n">
-        <v>44.6</v>
+        <v>18.1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>48.5</v>
       </c>
     </row>
     <row r="4">
@@ -928,7 +939,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>95</v>
+        <v>82.8</v>
       </c>
       <c r="U4" t="n">
         <v>89.7</v>
@@ -952,7 +963,7 @@
         <v>86.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>83.8</v>
       </c>
       <c r="AC4" t="n">
         <v>94.59999999999999</v>
@@ -976,16 +987,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="AL4" t="n">
         <v>76.5</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>64.7</v>
       </c>
-      <c r="AM4" t="n">
-        <v>76</v>
+      <c r="AN4" t="n">
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1049,13 +1063,13 @@
         <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>82.8</v>
       </c>
       <c r="U5" t="n">
         <v>42.6</v>
       </c>
       <c r="V5" t="n">
-        <v>47.1</v>
+        <v>46.1</v>
       </c>
       <c r="W5" t="n">
         <v>55.4</v>
@@ -1073,7 +1087,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.1</v>
+        <v>61.8</v>
       </c>
       <c r="AC5" t="n">
         <v>53.4</v>
@@ -1097,16 +1111,19 @@
         <v>82.8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>47.1</v>
       </c>
       <c r="AK5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AL5" t="n">
         <v>62.7</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>19.1</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41.7</v>
+      <c r="AN5" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="6">
@@ -1170,13 +1187,13 @@
         <v>65.2</v>
       </c>
       <c r="T6" t="n">
-        <v>11.8</v>
+        <v>82.8</v>
       </c>
       <c r="U6" t="n">
         <v>7.8</v>
       </c>
       <c r="V6" t="n">
-        <v>17.2</v>
+        <v>32.8</v>
       </c>
       <c r="W6" t="n">
         <v>56.9</v>
@@ -1194,7 +1211,7 @@
         <v>78.90000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
         <v>22.1</v>
@@ -1218,16 +1235,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL6" t="n">
         <v>25</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>82.8</v>
       </c>
-      <c r="AM6" t="n">
-        <v>10.8</v>
+      <c r="AN6" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="7">
@@ -1288,16 +1308,16 @@
         <v>77.90000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="T7" t="n">
-        <v>72.5</v>
+        <v>82.8</v>
       </c>
       <c r="U7" t="n">
         <v>23</v>
       </c>
       <c r="V7" t="n">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="W7" t="n">
         <v>23.5</v>
@@ -1315,7 +1335,7 @@
         <v>28.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>39.7</v>
+        <v>86.3</v>
       </c>
       <c r="AC7" t="n">
         <v>22.1</v>
@@ -1339,16 +1359,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38.7</v>
+        <v>40.2</v>
       </c>
       <c r="AK7" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="AL7" t="n">
         <v>13.2</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="AM7" t="n">
-        <v>19.1</v>
+      <c r="AN7" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="8">
@@ -1409,16 +1432,16 @@
         <v>85.3</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="T8" t="n">
-        <v>68.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="U8" t="n">
         <v>16.7</v>
       </c>
       <c r="V8" t="n">
-        <v>32.8</v>
+        <v>31.9</v>
       </c>
       <c r="W8" t="n">
         <v>35.3</v>
@@ -1436,7 +1459,7 @@
         <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>34.3</v>
+        <v>52</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -1460,16 +1483,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>52.9</v>
+        <v>35.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>57.8</v>
       </c>
       <c r="AL8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM8" t="n">
         <v>54.4</v>
       </c>
-      <c r="AM8" t="n">
-        <v>83.8</v>
+      <c r="AN8" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="9">
@@ -1530,10 +1556,10 @@
         <v>37.7</v>
       </c>
       <c r="S9" t="n">
-        <v>70.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>59.3</v>
+        <v>82.8</v>
       </c>
       <c r="U9" t="n">
         <v>45.1</v>
@@ -1557,7 +1583,7 @@
         <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
         <v>46.6</v>
@@ -1581,16 +1607,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>94.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="AK9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL9" t="n">
         <v>47.5</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>5.4</v>
       </c>
-      <c r="AM9" t="n">
-        <v>89.7</v>
+      <c r="AN9" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="10">
@@ -1651,16 +1680,16 @@
         <v>29.9</v>
       </c>
       <c r="S10" t="n">
-        <v>74.5</v>
+        <v>74</v>
       </c>
       <c r="T10" t="n">
-        <v>38.2</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
         <v>18.1</v>
       </c>
       <c r="V10" t="n">
-        <v>76.5</v>
+        <v>75</v>
       </c>
       <c r="W10" t="n">
         <v>7.4</v>
@@ -1678,7 +1707,7 @@
         <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>5</v>
+        <v>66.2</v>
       </c>
       <c r="AC10" t="n">
         <v>34.8</v>
@@ -1702,16 +1731,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AL10" t="n">
         <v>38.7</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>87.7</v>
       </c>
-      <c r="AM10" t="n">
-        <v>15.7</v>
+      <c r="AN10" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="11">
@@ -1775,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>55.9</v>
       </c>
       <c r="U11" t="n">
         <v>7.8</v>
       </c>
       <c r="V11" t="n">
-        <v>67.2</v>
+        <v>64.7</v>
       </c>
       <c r="W11" t="n">
         <v>41.2</v>
@@ -1799,7 +1831,7 @@
         <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>53.4</v>
+        <v>37.7</v>
       </c>
       <c r="AC11" t="n">
         <v>22.1</v>
@@ -1823,15 +1855,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>52.9</v>
       </c>
       <c r="AK11" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>54.4</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>35.3</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>49.5</v>
       </c>
     </row>
@@ -1896,7 +1931,7 @@
         <v>89.7</v>
       </c>
       <c r="T12" t="n">
-        <v>94.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="U12" t="n">
         <v>87.7</v>
@@ -1920,7 +1955,7 @@
         <v>95</v>
       </c>
       <c r="AB12" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="AC12" t="n">
         <v>90.7</v>
@@ -1947,13 +1982,16 @@
         <v>95</v>
       </c>
       <c r="AK12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL12" t="n">
         <v>35.8</v>
       </c>
-      <c r="AL12" t="n">
-        <v>5</v>
-      </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="13">
@@ -2017,7 +2055,7 @@
         <v>63.2</v>
       </c>
       <c r="T13" t="n">
-        <v>74</v>
+        <v>82.8</v>
       </c>
       <c r="U13" t="n">
         <v>82.40000000000001</v>
@@ -2041,7 +2079,7 @@
         <v>73</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>41.7</v>
       </c>
       <c r="AC13" t="n">
         <v>22.1</v>
@@ -2065,16 +2103,19 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>87.7</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="AL13" t="n">
         <v>62.7</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>32.8</v>
       </c>
-      <c r="AM13" t="n">
-        <v>79.90000000000001</v>
+      <c r="AN13" t="n">
+        <v>82.8</v>
       </c>
     </row>
     <row r="14">
@@ -2135,16 +2176,16 @@
         <v>64.7</v>
       </c>
       <c r="S14" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="T14" t="n">
-        <v>67.2</v>
+        <v>57.8</v>
       </c>
       <c r="U14" t="n">
         <v>28.9</v>
       </c>
       <c r="V14" t="n">
-        <v>46.6</v>
+        <v>45.1</v>
       </c>
       <c r="W14" t="n">
         <v>16.2</v>
@@ -2162,7 +2203,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB14" t="n">
-        <v>58.3</v>
+        <v>22.5</v>
       </c>
       <c r="AC14" t="n">
         <v>33.8</v>
@@ -2186,16 +2227,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>74.5</v>
+        <v>58.3</v>
       </c>
       <c r="AK14" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>39.7</v>
       </c>
       <c r="AM14" t="n">
         <v>39.7</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="15">
@@ -2259,13 +2303,13 @@
         <v>87.7</v>
       </c>
       <c r="T15" t="n">
-        <v>46.6</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
       <c r="W15" t="n">
         <v>66.2</v>
@@ -2283,7 +2327,7 @@
         <v>91.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>73</v>
+        <v>19.1</v>
       </c>
       <c r="AC15" t="n">
         <v>92.59999999999999</v>
@@ -2307,16 +2351,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="AL15" t="n">
         <v>16.2</v>
       </c>
-      <c r="AL15" t="n">
-        <v>95</v>
-      </c>
       <c r="AM15" t="n">
-        <v>36.8</v>
+        <v>95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="16">
@@ -2380,13 +2427,13 @@
         <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>10.8</v>
+        <v>59.8</v>
       </c>
       <c r="U16" t="n">
         <v>28.4</v>
       </c>
       <c r="V16" t="n">
-        <v>55.4</v>
+        <v>53.4</v>
       </c>
       <c r="W16" t="n">
         <v>46.6</v>
@@ -2404,7 +2451,7 @@
         <v>32.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>51</v>
+        <v>33.3</v>
       </c>
       <c r="AC16" t="n">
         <v>32.8</v>
@@ -2428,16 +2475,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>46.1</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AL16" t="n">
         <v>66.7</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>43.6</v>
       </c>
-      <c r="AM16" t="n">
-        <v>52.5</v>
+      <c r="AN16" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="17">
@@ -2498,10 +2548,10 @@
         <v>59.8</v>
       </c>
       <c r="S17" t="n">
-        <v>82.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="T17" t="n">
-        <v>93.59999999999999</v>
+        <v>55.9</v>
       </c>
       <c r="U17" t="n">
         <v>91.7</v>
@@ -2525,7 +2575,7 @@
         <v>92.59999999999999</v>
       </c>
       <c r="AB17" t="n">
-        <v>60.3</v>
+        <v>5</v>
       </c>
       <c r="AC17" t="n">
         <v>89.7</v>
@@ -2549,16 +2599,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ17" t="n">
-        <v>89.7</v>
+        <v>60.3</v>
       </c>
       <c r="AK17" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AL17" t="n">
         <v>63.7</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>52</v>
       </c>
-      <c r="AM17" t="n">
-        <v>82.40000000000001</v>
+      <c r="AN17" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2619,16 +2672,16 @@
         <v>31.4</v>
       </c>
       <c r="S18" t="n">
-        <v>72.09999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>64.7</v>
+        <v>82.8</v>
       </c>
       <c r="U18" t="n">
         <v>67.2</v>
       </c>
       <c r="V18" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="W18" t="n">
         <v>74</v>
@@ -2646,7 +2699,7 @@
         <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>82.8</v>
+        <v>5</v>
       </c>
       <c r="AC18" t="n">
         <v>67.2</v>
@@ -2670,15 +2723,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>95</v>
+        <v>82.8</v>
       </c>
       <c r="AK18" t="n">
-        <v>95</v>
+        <v>89.7</v>
       </c>
       <c r="AL18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM18" t="n">
         <v>7.8</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2743,13 +2799,13 @@
         <v>21.6</v>
       </c>
       <c r="T19" t="n">
-        <v>82.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="U19" t="n">
         <v>70.09999999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>39.7</v>
+        <v>38.7</v>
       </c>
       <c r="W19" t="n">
         <v>58.8</v>
@@ -2767,7 +2823,7 @@
         <v>62.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>76.5</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
         <v>5</v>
@@ -2791,16 +2847,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AL19" t="n">
         <v>61.8</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>37.3</v>
       </c>
-      <c r="AM19" t="n">
-        <v>63.7</v>
+      <c r="AN19" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="20">
@@ -2864,13 +2923,13 @@
         <v>95</v>
       </c>
       <c r="T20" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>95</v>
       </c>
       <c r="V20" t="n">
-        <v>58.3</v>
+        <v>56.4</v>
       </c>
       <c r="W20" t="n">
         <v>95</v>
@@ -2888,7 +2947,7 @@
         <v>95</v>
       </c>
       <c r="AB20" t="n">
-        <v>95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>95</v>
@@ -2912,16 +2971,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>91.2</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="AL20" t="n">
         <v>74.5</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>57.4</v>
       </c>
-      <c r="AM20" t="n">
-        <v>87.7</v>
+      <c r="AN20" t="n">
+        <v>83.8</v>
       </c>
     </row>
     <row r="21">
@@ -2985,13 +3047,13 @@
         <v>76.5</v>
       </c>
       <c r="T21" t="n">
-        <v>14.2</v>
+        <v>40.2</v>
       </c>
       <c r="U21" t="n">
         <v>43.1</v>
       </c>
       <c r="V21" t="n">
-        <v>77.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="W21" t="n">
         <v>64.7</v>
@@ -3009,7 +3071,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB21" t="n">
-        <v>80.40000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="AC21" t="n">
         <v>58.3</v>
@@ -3033,16 +3095,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>78.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AK21" t="n">
+        <v>74</v>
+      </c>
+      <c r="AL21" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>32.4</v>
       </c>
-      <c r="AM21" t="n">
-        <v>88.7</v>
+      <c r="AN21" t="n">
+        <v>89.7</v>
       </c>
     </row>
     <row r="22">
@@ -3106,7 +3171,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="T22" t="n">
-        <v>81.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="U22" t="n">
         <v>51</v>
@@ -3130,7 +3195,7 @@
         <v>90.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>65.2</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="n">
         <v>65.2</v>
@@ -3154,16 +3219,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>84.8</v>
+        <v>65.2</v>
       </c>
       <c r="AK22" t="n">
-        <v>95</v>
+        <v>87.7</v>
       </c>
       <c r="AL22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM22" t="n">
         <v>30.4</v>
       </c>
-      <c r="AM22" t="n">
-        <v>94.09999999999999</v>
+      <c r="AN22" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -3224,16 +3292,16 @@
         <v>47.5</v>
       </c>
       <c r="S23" t="n">
-        <v>56.4</v>
+        <v>55.9</v>
       </c>
       <c r="T23" t="n">
-        <v>38.2</v>
+        <v>12.3</v>
       </c>
       <c r="U23" t="n">
         <v>49.5</v>
       </c>
       <c r="V23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W23" t="n">
         <v>53.9</v>
@@ -3251,7 +3319,7 @@
         <v>40.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>38.2</v>
+        <v>56.9</v>
       </c>
       <c r="AC23" t="n">
         <v>59.8</v>
@@ -3275,16 +3343,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29.4</v>
+        <v>39.2</v>
       </c>
       <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="AM23" t="n">
-        <v>12.3</v>
+      <c r="AN23" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="24">
@@ -3345,16 +3416,16 @@
         <v>93.09999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="T24" t="n">
-        <v>77.5</v>
+        <v>82.8</v>
       </c>
       <c r="U24" t="n">
         <v>65.2</v>
       </c>
       <c r="V24" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="W24" t="n">
         <v>57.8</v>
@@ -3372,7 +3443,7 @@
         <v>52.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>78.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AC24" t="n">
         <v>5</v>
@@ -3396,16 +3467,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>59.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AK24" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="AL24" t="n">
         <v>83.3</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="AM24" t="n">
-        <v>75</v>
+      <c r="AN24" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="25">
@@ -3466,16 +3540,16 @@
         <v>42.6</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="T25" t="n">
-        <v>25.5</v>
+        <v>31.4</v>
       </c>
       <c r="U25" t="n">
         <v>7.8</v>
       </c>
       <c r="V25" t="n">
-        <v>26</v>
+        <v>27.9</v>
       </c>
       <c r="W25" t="n">
         <v>29.9</v>
@@ -3493,7 +3567,7 @@
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AC25" t="n">
         <v>6.4</v>
@@ -3517,16 +3591,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AK25" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AL25" t="n">
         <v>46.6</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>72.5</v>
       </c>
-      <c r="AM25" t="n">
-        <v>30.4</v>
+      <c r="AN25" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="26">
@@ -3590,13 +3667,13 @@
         <v>75</v>
       </c>
       <c r="T26" t="n">
-        <v>71.59999999999999</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>46.6</v>
       </c>
       <c r="V26" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="W26" t="n">
         <v>94.59999999999999</v>
@@ -3614,7 +3691,7 @@
         <v>82.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>92.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>5.4</v>
@@ -3638,16 +3715,19 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AK26" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="AL26" t="n">
         <v>87.7</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
         <v>5.9</v>
       </c>
-      <c r="AM26" t="n">
-        <v>91.7</v>
+      <c r="AN26" t="n">
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3708,16 +3788,16 @@
         <v>82.8</v>
       </c>
       <c r="S27" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="T27" t="n">
-        <v>78.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="U27" t="n">
         <v>7.8</v>
       </c>
       <c r="V27" t="n">
-        <v>43.6</v>
+        <v>41.7</v>
       </c>
       <c r="W27" t="n">
         <v>67.59999999999999</v>
@@ -3735,7 +3815,7 @@
         <v>57.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>20.6</v>
+        <v>47.5</v>
       </c>
       <c r="AC27" t="n">
         <v>7.8</v>
@@ -3759,15 +3839,18 @@
         <v>77.90000000000001</v>
       </c>
       <c r="AJ27" t="n">
-        <v>37.7</v>
+        <v>19.6</v>
       </c>
       <c r="AK27" t="n">
-        <v>95</v>
+        <v>37.3</v>
       </c>
       <c r="AL27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM27" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>65.2</v>
       </c>
     </row>
@@ -3811,7 +3894,7 @@
         <v>35.8</v>
       </c>
       <c r="M28" t="n">
-        <v>32.8</v>
+        <v>31.9</v>
       </c>
       <c r="N28" t="n">
         <v>64.7</v>
@@ -3829,10 +3912,10 @@
         <v>38.7</v>
       </c>
       <c r="S28" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="T28" t="n">
-        <v>95</v>
+        <v>19.1</v>
       </c>
       <c r="U28" t="n">
         <v>95</v>
@@ -3856,7 +3939,7 @@
         <v>33.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>41.7</v>
+        <v>29.4</v>
       </c>
       <c r="AC28" t="n">
         <v>95</v>
@@ -3880,16 +3963,19 @@
         <v>78.40000000000001</v>
       </c>
       <c r="AJ28" t="n">
-        <v>91.7</v>
+        <v>41.2</v>
       </c>
       <c r="AK28" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="AL28" t="n">
         <v>89.2</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>15.7</v>
       </c>
-      <c r="AM28" t="n">
-        <v>94.59999999999999</v>
+      <c r="AN28" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -3953,13 +4039,13 @@
         <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>89.7</v>
+        <v>82.8</v>
       </c>
       <c r="U29" t="n">
         <v>86.3</v>
       </c>
       <c r="V29" t="n">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W29" t="n">
         <v>78.40000000000001</v>
@@ -3977,7 +4063,7 @@
         <v>22.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>84.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>39.2</v>
@@ -4001,16 +4087,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>59.8</v>
+        <v>84.8</v>
       </c>
       <c r="AK29" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AL29" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AM29" t="n">
         <v>42.6</v>
       </c>
-      <c r="AM29" t="n">
-        <v>82.8</v>
+      <c r="AN29" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="30">
@@ -4071,16 +4160,16 @@
         <v>87.7</v>
       </c>
       <c r="S30" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="T30" t="n">
-        <v>54.9</v>
+        <v>6.9</v>
       </c>
       <c r="U30" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>84.3</v>
+        <v>83.3</v>
       </c>
       <c r="W30" t="n">
         <v>20.6</v>
@@ -4098,7 +4187,7 @@
         <v>63.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>54.9</v>
+        <v>61.8</v>
       </c>
       <c r="AC30" t="n">
         <v>80.40000000000001</v>
@@ -4122,16 +4211,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>63.2</v>
+        <v>53.9</v>
       </c>
       <c r="AK30" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AL30" t="n">
         <v>73.5</v>
       </c>
-      <c r="AL30" t="n">
-        <v>95</v>
-      </c>
       <c r="AM30" t="n">
-        <v>60.3</v>
+        <v>95</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="31">
@@ -4195,13 +4287,13 @@
         <v>41.7</v>
       </c>
       <c r="T31" t="n">
-        <v>76.5</v>
+        <v>65.2</v>
       </c>
       <c r="U31" t="n">
         <v>7.8</v>
       </c>
       <c r="V31" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="W31" t="n">
         <v>50</v>
@@ -4219,7 +4311,7 @@
         <v>30.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>12.7</v>
       </c>
       <c r="AC31" t="n">
         <v>10.8</v>
@@ -4243,16 +4335,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>45.1</v>
+        <v>26.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>95</v>
+        <v>37.7</v>
       </c>
       <c r="AL31" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM31" t="n">
         <v>76</v>
       </c>
-      <c r="AM31" t="n">
-        <v>74</v>
+      <c r="AN31" t="n">
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4316,7 +4411,7 @@
         <v>91.7</v>
       </c>
       <c r="T32" t="n">
-        <v>81.90000000000001</v>
+        <v>5</v>
       </c>
       <c r="U32" t="n">
         <v>95</v>
@@ -4340,7 +4435,7 @@
         <v>58.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="AC32" t="n">
         <v>93.59999999999999</v>
@@ -4364,16 +4459,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ32" t="n">
-        <v>92.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="n">
-        <v>17.6</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AL32" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AM32" t="n">
         <v>28.9</v>
       </c>
-      <c r="AM32" t="n">
-        <v>61.8</v>
+      <c r="AN32" t="n">
+        <v>60.3</v>
       </c>
     </row>
     <row r="33">
@@ -4434,16 +4532,16 @@
         <v>60.8</v>
       </c>
       <c r="S33" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>95</v>
+        <v>11.3</v>
       </c>
       <c r="U33" t="n">
         <v>83.3</v>
       </c>
       <c r="V33" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="W33" t="n">
         <v>94.09999999999999</v>
@@ -4461,7 +4559,7 @@
         <v>88.7</v>
       </c>
       <c r="AB33" t="n">
-        <v>86.8</v>
+        <v>40.7</v>
       </c>
       <c r="AC33" t="n">
         <v>86.8</v>
@@ -4485,16 +4583,19 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="n">
-        <v>62.7</v>
+        <v>86.8</v>
       </c>
       <c r="AK33" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="AL33" t="n">
         <v>6.4</v>
       </c>
-      <c r="AL33" t="n">
-        <v>95</v>
-      </c>
       <c r="AM33" t="n">
-        <v>27.5</v>
+        <v>95</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="34">
@@ -4555,10 +4656,10 @@
         <v>77</v>
       </c>
       <c r="S34" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="T34" t="n">
-        <v>86.3</v>
+        <v>17.6</v>
       </c>
       <c r="U34" t="n">
         <v>66.2</v>
@@ -4582,7 +4683,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AB34" t="n">
-        <v>71.59999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="AC34" t="n">
         <v>76.5</v>
@@ -4606,15 +4707,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ34" t="n">
-        <v>64.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AK34" t="n">
-        <v>53.4</v>
+        <v>62.7</v>
       </c>
       <c r="AL34" t="n">
         <v>53.4</v>
       </c>
       <c r="AM34" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="AN34" t="n">
         <v>55.4</v>
       </c>
     </row>
@@ -4679,13 +4783,13 @@
         <v>86.8</v>
       </c>
       <c r="T35" t="n">
-        <v>90.7</v>
+        <v>62.3</v>
       </c>
       <c r="U35" t="n">
         <v>84.3</v>
       </c>
       <c r="V35" t="n">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
       <c r="W35" t="n">
         <v>8.800000000000001</v>
@@ -4703,7 +4807,7 @@
         <v>43.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>57.4</v>
+        <v>11.3</v>
       </c>
       <c r="AC35" t="n">
         <v>87.7</v>
@@ -4727,15 +4831,18 @@
         <v>81.90000000000001</v>
       </c>
       <c r="AJ35" t="n">
-        <v>88.7</v>
+        <v>57.4</v>
       </c>
       <c r="AK35" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="AL35" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="AL35" t="n">
-        <v>5</v>
-      </c>
       <c r="AM35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN35" t="n">
         <v>90.7</v>
       </c>
     </row>
@@ -4800,13 +4907,13 @@
         <v>69.09999999999999</v>
       </c>
       <c r="T36" t="n">
-        <v>58.3</v>
+        <v>82.8</v>
       </c>
       <c r="U36" t="n">
         <v>90.7</v>
       </c>
       <c r="V36" t="n">
-        <v>21.1</v>
+        <v>20.1</v>
       </c>
       <c r="W36" t="n">
         <v>89.7</v>
@@ -4824,7 +4931,7 @@
         <v>30.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>88.2</v>
+        <v>5</v>
       </c>
       <c r="AC36" t="n">
         <v>35.3</v>
@@ -4848,15 +4955,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ36" t="n">
-        <v>95</v>
+        <v>88.2</v>
       </c>
       <c r="AK36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL36" t="n">
         <v>85.3</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AM36" t="n">
         <v>34.3</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AN36" t="n">
         <v>95</v>
       </c>
     </row>
@@ -4918,16 +5028,16 @@
         <v>75</v>
       </c>
       <c r="S37" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="T37" t="n">
-        <v>88.2</v>
+        <v>82.8</v>
       </c>
       <c r="U37" t="n">
         <v>74</v>
       </c>
       <c r="V37" t="n">
-        <v>19.1</v>
+        <v>18.1</v>
       </c>
       <c r="W37" t="n">
         <v>13.7</v>
@@ -4945,7 +5055,7 @@
         <v>18.6</v>
       </c>
       <c r="AB37" t="n">
-        <v>88.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AC37" t="n">
         <v>81.40000000000001</v>
@@ -4969,16 +5079,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ37" t="n">
-        <v>79.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="AK37" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="AL37" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AM37" t="n">
         <v>24.5</v>
       </c>
-      <c r="AM37" t="n">
-        <v>77.90000000000001</v>
+      <c r="AN37" t="n">
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5039,10 +5152,10 @@
         <v>50.5</v>
       </c>
       <c r="S38" t="n">
-        <v>45.1</v>
+        <v>45.6</v>
       </c>
       <c r="T38" t="n">
-        <v>42.2</v>
+        <v>38.7</v>
       </c>
       <c r="U38" t="n">
         <v>15.7</v>
@@ -5066,7 +5179,7 @@
         <v>35.8</v>
       </c>
       <c r="AB38" t="n">
-        <v>37.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>8.300000000000001</v>
@@ -5090,16 +5203,19 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10.3</v>
+        <v>37.3</v>
       </c>
       <c r="AK38" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AL38" t="n">
         <v>57.4</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AM38" t="n">
         <v>83.8</v>
       </c>
-      <c r="AM38" t="n">
-        <v>26.5</v>
+      <c r="AN38" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="39">
@@ -5163,7 +5279,7 @@
         <v>95</v>
       </c>
       <c r="T39" t="n">
-        <v>95</v>
+        <v>32.8</v>
       </c>
       <c r="U39" t="n">
         <v>95</v>
@@ -5187,7 +5303,7 @@
         <v>49</v>
       </c>
       <c r="AB39" t="n">
-        <v>62.3</v>
+        <v>49.5</v>
       </c>
       <c r="AC39" t="n">
         <v>95</v>
@@ -5211,15 +5327,18 @@
         <v>85.8</v>
       </c>
       <c r="AJ39" t="n">
-        <v>95</v>
+        <v>62.3</v>
       </c>
       <c r="AK39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL39" t="n">
         <v>44.6</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>12.7</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN39" t="n">
         <v>95</v>
       </c>
     </row>
@@ -5284,13 +5403,13 @@
         <v>11.3</v>
       </c>
       <c r="T40" t="n">
-        <v>87.7</v>
+        <v>82.8</v>
       </c>
       <c r="U40" t="n">
         <v>64.7</v>
       </c>
       <c r="V40" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="W40" t="n">
         <v>39.7</v>
@@ -5308,7 +5427,7 @@
         <v>44.1</v>
       </c>
       <c r="AB40" t="n">
-        <v>89.7</v>
+        <v>54.9</v>
       </c>
       <c r="AC40" t="n">
         <v>75</v>
@@ -5332,16 +5451,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ40" t="n">
-        <v>81.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="AK40" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="AL40" t="n">
         <v>49.5</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AM40" t="n">
         <v>13.7</v>
       </c>
-      <c r="AM40" t="n">
-        <v>71.09999999999999</v>
+      <c r="AN40" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -5405,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>83.8</v>
+        <v>82.8</v>
       </c>
       <c r="U41" t="n">
         <v>37.3</v>
@@ -5429,7 +5551,7 @@
         <v>27.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>92.2</v>
+        <v>10.3</v>
       </c>
       <c r="AC41" t="n">
         <v>52</v>
@@ -5453,16 +5575,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55.9</v>
+        <v>91.7</v>
       </c>
       <c r="AK41" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="AL41" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="AL41" t="n">
-        <v>5</v>
-      </c>
       <c r="AM41" t="n">
-        <v>77.5</v>
+        <v>5</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -5523,10 +5648,10 @@
         <v>89.2</v>
       </c>
       <c r="S42" t="n">
-        <v>54.4</v>
+        <v>54.9</v>
       </c>
       <c r="T42" t="n">
-        <v>87.3</v>
+        <v>52</v>
       </c>
       <c r="U42" t="n">
         <v>73</v>
@@ -5550,7 +5675,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB42" t="n">
-        <v>24.5</v>
+        <v>35.8</v>
       </c>
       <c r="AC42" t="n">
         <v>80.40000000000001</v>
@@ -5574,15 +5699,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ42" t="n">
-        <v>65.7</v>
+        <v>24.5</v>
       </c>
       <c r="AK42" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="AL42" t="n">
         <v>90.7</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AM42" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AM42" t="n">
+      <c r="AN42" t="n">
         <v>85.8</v>
       </c>
     </row>
@@ -5647,13 +5775,13 @@
         <v>66.7</v>
       </c>
       <c r="T43" t="n">
-        <v>65.2</v>
+        <v>17.6</v>
       </c>
       <c r="U43" t="n">
         <v>58.3</v>
       </c>
       <c r="V43" t="n">
-        <v>20.1</v>
+        <v>19.1</v>
       </c>
       <c r="W43" t="n">
         <v>44.1</v>
@@ -5671,7 +5799,7 @@
         <v>60.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>49.5</v>
+        <v>53.9</v>
       </c>
       <c r="AC43" t="n">
         <v>63.7</v>
@@ -5695,16 +5823,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ43" t="n">
-        <v>53.4</v>
+        <v>49.5</v>
       </c>
       <c r="AK43" t="n">
+        <v>52</v>
+      </c>
+      <c r="AL43" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AM43" t="n">
         <v>55.9</v>
       </c>
-      <c r="AM43" t="n">
-        <v>58.8</v>
+      <c r="AN43" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="44">
@@ -5768,13 +5899,13 @@
         <v>35.8</v>
       </c>
       <c r="T44" t="n">
-        <v>70.09999999999999</v>
+        <v>51</v>
       </c>
       <c r="U44" t="n">
         <v>21.1</v>
       </c>
       <c r="V44" t="n">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="W44" t="n">
         <v>38.2</v>
@@ -5792,7 +5923,7 @@
         <v>53.9</v>
       </c>
       <c r="AB44" t="n">
-        <v>67.2</v>
+        <v>17.6</v>
       </c>
       <c r="AC44" t="n">
         <v>37.3</v>
@@ -5816,16 +5947,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ44" t="n">
-        <v>79.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="AK44" t="n">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="n">
         <v>58.3</v>
       </c>
-      <c r="AL44" t="n">
+      <c r="AM44" t="n">
         <v>17.2</v>
       </c>
-      <c r="AM44" t="n">
-        <v>72.09999999999999</v>
+      <c r="AN44" t="n">
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5889,13 +6023,13 @@
         <v>5</v>
       </c>
       <c r="T45" t="n">
-        <v>34.3</v>
+        <v>82.8</v>
       </c>
       <c r="U45" t="n">
         <v>82.8</v>
       </c>
       <c r="V45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W45" t="n">
         <v>89.2</v>
@@ -5913,7 +6047,7 @@
         <v>41.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>77.90000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="AC45" t="n">
         <v>60.8</v>
@@ -5937,16 +6071,19 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AK45" t="n">
-        <v>85.3</v>
+        <v>10.3</v>
       </c>
       <c r="AL45" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="AM45" t="n">
         <v>58.3</v>
       </c>
-      <c r="AM45" t="n">
-        <v>46.1</v>
+      <c r="AN45" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="46">
@@ -6010,13 +6147,13 @@
         <v>5.4</v>
       </c>
       <c r="T46" t="n">
-        <v>20.6</v>
+        <v>52</v>
       </c>
       <c r="U46" t="n">
         <v>7.8</v>
       </c>
       <c r="V46" t="n">
-        <v>82.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="W46" t="n">
         <v>72.09999999999999</v>
@@ -6034,7 +6171,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="AB46" t="n">
-        <v>59.3</v>
+        <v>20.1</v>
       </c>
       <c r="AC46" t="n">
         <v>22.1</v>
@@ -6058,16 +6195,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ46" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AK46" t="n">
         <v>55.9</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AL46" t="n">
         <v>29.9</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AM46" t="n">
         <v>30.9</v>
       </c>
-      <c r="AM46" t="n">
-        <v>47.1</v>
+      <c r="AN46" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="47">
@@ -6131,7 +6271,7 @@
         <v>92.59999999999999</v>
       </c>
       <c r="T47" t="n">
-        <v>95</v>
+        <v>42.6</v>
       </c>
       <c r="U47" t="n">
         <v>88.2</v>
@@ -6155,7 +6295,7 @@
         <v>50</v>
       </c>
       <c r="AB47" t="n">
-        <v>79.40000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="AC47" t="n">
         <v>91.7</v>
@@ -6179,16 +6319,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ47" t="n">
-        <v>95</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AK47" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL47" t="n">
         <v>56.4</v>
       </c>
-      <c r="AL47" t="n">
-        <v>5</v>
-      </c>
       <c r="AM47" t="n">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6252,7 +6395,7 @@
         <v>95</v>
       </c>
       <c r="T48" t="n">
-        <v>50.5</v>
+        <v>5</v>
       </c>
       <c r="U48" t="n">
         <v>95</v>
@@ -6276,7 +6419,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB48" t="n">
-        <v>90.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC48" t="n">
         <v>95</v>
@@ -6300,15 +6443,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ48" t="n">
-        <v>93.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="AK48" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AL48" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AM48" t="n">
         <v>24</v>
       </c>
-      <c r="AM48" t="n">
+      <c r="AN48" t="n">
         <v>92.59999999999999</v>
       </c>
     </row>
@@ -6373,13 +6519,13 @@
         <v>48</v>
       </c>
       <c r="T49" t="n">
-        <v>91.7</v>
+        <v>28.9</v>
       </c>
       <c r="U49" t="n">
         <v>75</v>
       </c>
       <c r="V49" t="n">
-        <v>80.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="W49" t="n">
         <v>38.7</v>
@@ -6397,7 +6543,7 @@
         <v>24.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>20.6</v>
+        <v>27.9</v>
       </c>
       <c r="AC49" t="n">
         <v>82.8</v>
@@ -6421,16 +6567,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ49" t="n">
-        <v>56.9</v>
+        <v>21.6</v>
       </c>
       <c r="AK49" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AL49" t="n">
         <v>65.7</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AM49" t="n">
         <v>10.8</v>
       </c>
-      <c r="AM49" t="n">
-        <v>66.2</v>
+      <c r="AN49" t="n">
+        <v>64.2</v>
       </c>
     </row>
     <row r="50">
@@ -6473,7 +6622,7 @@
         <v>51</v>
       </c>
       <c r="M50" t="n">
-        <v>59.8</v>
+        <v>58.3</v>
       </c>
       <c r="N50" t="n">
         <v>50</v>
@@ -6494,13 +6643,13 @@
         <v>9.300000000000001</v>
       </c>
       <c r="T50" t="n">
-        <v>5.4</v>
+        <v>48</v>
       </c>
       <c r="U50" t="n">
         <v>54.9</v>
       </c>
       <c r="V50" t="n">
-        <v>68.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="W50" t="n">
         <v>92.2</v>
@@ -6518,7 +6667,7 @@
         <v>89.7</v>
       </c>
       <c r="AB50" t="n">
-        <v>72.09999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AC50" t="n">
         <v>22.1</v>
@@ -6542,15 +6691,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ50" t="n">
-        <v>76.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="AK50" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AL50" t="n">
         <v>37.7</v>
       </c>
-      <c r="AL50" t="n">
+      <c r="AM50" t="n">
         <v>22.5</v>
       </c>
-      <c r="AM50" t="n">
+      <c r="AN50" t="n">
         <v>58.3</v>
       </c>
     </row>
@@ -6615,13 +6767,13 @@
         <v>95</v>
       </c>
       <c r="T51" t="n">
-        <v>49</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U51" t="n">
         <v>76</v>
       </c>
       <c r="V51" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W51" t="n">
         <v>90.7</v>
@@ -6639,7 +6791,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="AB51" t="n">
-        <v>66.2</v>
+        <v>95</v>
       </c>
       <c r="AC51" t="n">
         <v>83.8</v>
@@ -6663,16 +6815,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ51" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="AK51" t="n">
         <v>18.1</v>
       </c>
-      <c r="AK51" t="n">
+      <c r="AL51" t="n">
         <v>40.7</v>
       </c>
-      <c r="AL51" t="n">
-        <v>95</v>
-      </c>
       <c r="AM51" t="n">
-        <v>16.2</v>
+        <v>95</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="52">
@@ -6736,13 +6891,13 @@
         <v>95</v>
       </c>
       <c r="T52" t="n">
-        <v>52.9</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>91.2</v>
+        <v>89.7</v>
       </c>
       <c r="W52" t="n">
         <v>93.09999999999999</v>
@@ -6760,7 +6915,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="AB52" t="n">
-        <v>85.3</v>
+        <v>5</v>
       </c>
       <c r="AC52" t="n">
         <v>95</v>
@@ -6784,16 +6939,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ52" t="n">
-        <v>86.8</v>
+        <v>85.3</v>
       </c>
       <c r="AK52" t="n">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="n">
         <v>66.7</v>
       </c>
-      <c r="AL52" t="n">
+      <c r="AM52" t="n">
         <v>47.5</v>
       </c>
-      <c r="AM52" t="n">
-        <v>80.90000000000001</v>
+      <c r="AN52" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="53">
@@ -6854,16 +7012,16 @@
         <v>24.5</v>
       </c>
       <c r="S53" t="n">
-        <v>80.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>27.9</v>
+        <v>24</v>
       </c>
       <c r="U53" t="n">
         <v>41.2</v>
       </c>
       <c r="V53" t="n">
-        <v>70.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="W53" t="n">
         <v>69.59999999999999</v>
@@ -6881,7 +7039,7 @@
         <v>76</v>
       </c>
       <c r="AB53" t="n">
-        <v>16.2</v>
+        <v>82.8</v>
       </c>
       <c r="AC53" t="n">
         <v>52.5</v>
@@ -6905,15 +7063,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ53" t="n">
-        <v>5</v>
+        <v>16.2</v>
       </c>
       <c r="AK53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL53" t="n">
         <v>5.4</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AM53" t="n">
         <v>90.2</v>
       </c>
-      <c r="AM53" t="n">
+      <c r="AN53" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6957,7 +7118,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>69.09999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="N54" t="n">
         <v>41.2</v>
@@ -6978,13 +7139,13 @@
         <v>55.9</v>
       </c>
       <c r="T54" t="n">
-        <v>56.4</v>
+        <v>82.8</v>
       </c>
       <c r="U54" t="n">
         <v>7.8</v>
       </c>
       <c r="V54" t="n">
-        <v>18.1</v>
+        <v>17.2</v>
       </c>
       <c r="W54" t="n">
         <v>33.3</v>
@@ -7002,7 +7163,7 @@
         <v>61.3</v>
       </c>
       <c r="AB54" t="n">
-        <v>52</v>
+        <v>62.7</v>
       </c>
       <c r="AC54" t="n">
         <v>22.1</v>
@@ -7026,16 +7187,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ54" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AK54" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AL54" t="n">
         <v>50.5</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AM54" t="n">
         <v>7.8</v>
       </c>
-      <c r="AM54" t="n">
-        <v>68.09999999999999</v>
+      <c r="AN54" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -7096,16 +7260,16 @@
         <v>73.5</v>
       </c>
       <c r="S55" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="T55" t="n">
-        <v>75.5</v>
+        <v>82.8</v>
       </c>
       <c r="U55" t="n">
         <v>20.1</v>
       </c>
       <c r="V55" t="n">
-        <v>38.7</v>
+        <v>37.7</v>
       </c>
       <c r="W55" t="n">
         <v>24.5</v>
@@ -7123,7 +7287,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB55" t="n">
-        <v>36.3</v>
+        <v>39.7</v>
       </c>
       <c r="AC55" t="n">
         <v>22.1</v>
@@ -7147,16 +7311,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ55" t="n">
-        <v>50.5</v>
+        <v>35.8</v>
       </c>
       <c r="AK55" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AL55" t="n">
         <v>30.9</v>
       </c>
-      <c r="AL55" t="n">
+      <c r="AM55" t="n">
         <v>56.4</v>
       </c>
-      <c r="AM55" t="n">
-        <v>40.7</v>
+      <c r="AN55" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="56">
@@ -7217,16 +7384,16 @@
         <v>79.40000000000001</v>
       </c>
       <c r="S56" t="n">
-        <v>86.3</v>
+        <v>85.3</v>
       </c>
       <c r="T56" t="n">
-        <v>92.59999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="U56" t="n">
         <v>86.8</v>
       </c>
       <c r="V56" t="n">
-        <v>72.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="W56" t="n">
         <v>70.59999999999999</v>
@@ -7244,7 +7411,7 @@
         <v>84.8</v>
       </c>
       <c r="AB56" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="AC56" t="n">
         <v>88.7</v>
@@ -7268,16 +7435,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ56" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AK56" t="n">
         <v>82.8</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AL56" t="n">
         <v>36.8</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AM56" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="AM56" t="n">
-        <v>55.9</v>
+      <c r="AN56" t="n">
+        <v>56.4</v>
       </c>
     </row>
     <row r="57">
@@ -7341,13 +7511,13 @@
         <v>19.1</v>
       </c>
       <c r="T57" t="n">
-        <v>7.8</v>
+        <v>27</v>
       </c>
       <c r="U57" t="n">
         <v>7.8</v>
       </c>
       <c r="V57" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="W57" t="n">
         <v>12.3</v>
@@ -7365,7 +7535,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB57" t="n">
-        <v>33.3</v>
+        <v>43.6</v>
       </c>
       <c r="AC57" t="n">
         <v>22.1</v>
@@ -7389,16 +7559,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ57" t="n">
-        <v>46.6</v>
+        <v>33.8</v>
       </c>
       <c r="AK57" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="AL57" t="n">
         <v>39.7</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>46.1</v>
       </c>
-      <c r="AM57" t="n">
-        <v>43.1</v>
+      <c r="AN57" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="58">
@@ -7462,13 +7635,13 @@
         <v>5</v>
       </c>
       <c r="T58" t="n">
-        <v>79.90000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="U58" t="n">
         <v>38.7</v>
       </c>
       <c r="V58" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="W58" t="n">
         <v>54.4</v>
@@ -7486,7 +7659,7 @@
         <v>31.4</v>
       </c>
       <c r="AB58" t="n">
-        <v>75</v>
+        <v>22.5</v>
       </c>
       <c r="AC58" t="n">
         <v>22.1</v>
@@ -7510,16 +7683,19 @@
         <v>81.40000000000001</v>
       </c>
       <c r="AJ58" t="n">
-        <v>48.5</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AL58" t="n">
         <v>92.2</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>16.7</v>
       </c>
-      <c r="AM58" t="n">
-        <v>79.40000000000001</v>
+      <c r="AN58" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -7562,7 +7738,7 @@
         <v>26</v>
       </c>
       <c r="M59" t="n">
-        <v>31.9</v>
+        <v>32.8</v>
       </c>
       <c r="N59" t="n">
         <v>13.2</v>
@@ -7583,13 +7759,13 @@
         <v>17.2</v>
       </c>
       <c r="T59" t="n">
-        <v>22.1</v>
+        <v>29.9</v>
       </c>
       <c r="U59" t="n">
         <v>24.5</v>
       </c>
       <c r="V59" t="n">
-        <v>38.2</v>
+        <v>35.8</v>
       </c>
       <c r="W59" t="n">
         <v>21.6</v>
@@ -7607,7 +7783,7 @@
         <v>37.7</v>
       </c>
       <c r="AB59" t="n">
-        <v>26</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="AC59" t="n">
         <v>22.1</v>
@@ -7631,16 +7807,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ59" t="n">
-        <v>28.9</v>
+        <v>26</v>
       </c>
       <c r="AK59" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AL59" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>81.40000000000001</v>
       </c>
-      <c r="AM59" t="n">
-        <v>43.1</v>
+      <c r="AN59" t="n">
+        <v>45.1</v>
       </c>
     </row>
     <row r="60">
@@ -7704,7 +7883,7 @@
         <v>10.3</v>
       </c>
       <c r="T60" t="n">
-        <v>47.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U60" t="n">
         <v>32.4</v>
@@ -7728,7 +7907,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="AB60" t="n">
-        <v>56.9</v>
+        <v>91.7</v>
       </c>
       <c r="AC60" t="n">
         <v>42.2</v>
@@ -7752,16 +7931,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34.3</v>
+        <v>56.9</v>
       </c>
       <c r="AK60" t="n">
-        <v>75</v>
+        <v>40.2</v>
       </c>
       <c r="AL60" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AM60" t="n">
         <v>41.7</v>
       </c>
-      <c r="AM60" t="n">
-        <v>50.5</v>
+      <c r="AN60" t="n">
+        <v>52.5</v>
       </c>
     </row>
     <row r="61">
@@ -7780,7 +7962,7 @@
         <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="F61" t="n">
         <v>11.3</v>
@@ -7822,16 +8004,16 @@
         <v>33.8</v>
       </c>
       <c r="S61" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="T61" t="n">
-        <v>18.6</v>
+        <v>20.1</v>
       </c>
       <c r="U61" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="V61" t="n">
-        <v>56.4</v>
+        <v>60.8</v>
       </c>
       <c r="W61" t="n">
         <v>5</v>
@@ -7849,7 +8031,7 @@
         <v>52</v>
       </c>
       <c r="AB61" t="n">
-        <v>18.1</v>
+        <v>73.5</v>
       </c>
       <c r="AC61" t="n">
         <v>37.3</v>
@@ -7873,16 +8055,19 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8.300000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="AK61" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AL61" t="n">
         <v>41.7</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>84.8</v>
       </c>
-      <c r="AM61" t="n">
-        <v>17.2</v>
+      <c r="AN61" t="n">
+        <v>18.1</v>
       </c>
     </row>
     <row r="62">
@@ -7943,16 +8128,16 @@
         <v>12.3</v>
       </c>
       <c r="S62" t="n">
-        <v>88.7</v>
+        <v>88.2</v>
       </c>
       <c r="T62" t="n">
-        <v>36.3</v>
+        <v>60.8</v>
       </c>
       <c r="U62" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
       <c r="W62" t="n">
         <v>95</v>
@@ -7970,7 +8155,7 @@
         <v>95</v>
       </c>
       <c r="AB62" t="n">
-        <v>64.2</v>
+        <v>89.7</v>
       </c>
       <c r="AC62" t="n">
         <v>79.40000000000001</v>
@@ -7994,16 +8179,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ62" t="n">
-        <v>81.40000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="AK62" t="n">
-        <v>80.40000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="AL62" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AM62" t="n">
         <v>23</v>
       </c>
-      <c r="AM62" t="n">
-        <v>86.8</v>
+      <c r="AN62" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="63">
@@ -8067,7 +8255,7 @@
         <v>15.2</v>
       </c>
       <c r="T63" t="n">
-        <v>62.3</v>
+        <v>53.9</v>
       </c>
       <c r="U63" t="n">
         <v>7.8</v>
@@ -8091,7 +8279,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB63" t="n">
-        <v>45.1</v>
+        <v>92.2</v>
       </c>
       <c r="AC63" t="n">
         <v>22.1</v>
@@ -8115,16 +8303,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ63" t="n">
-        <v>41.7</v>
+        <v>44.6</v>
       </c>
       <c r="AK63" t="n">
-        <v>82.40000000000001</v>
+        <v>49</v>
       </c>
       <c r="AL63" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="AM63" t="n">
         <v>49</v>
       </c>
-      <c r="AM63" t="n">
-        <v>56.9</v>
+      <c r="AN63" t="n">
+        <v>62.3</v>
       </c>
     </row>
     <row r="64">
@@ -8188,13 +8379,13 @@
         <v>21.1</v>
       </c>
       <c r="T64" t="n">
-        <v>44.6</v>
+        <v>7.4</v>
       </c>
       <c r="U64" t="n">
         <v>7.8</v>
       </c>
       <c r="V64" t="n">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="W64" t="n">
         <v>87.7</v>
@@ -8212,7 +8403,7 @@
         <v>34.8</v>
       </c>
       <c r="AB64" t="n">
-        <v>95</v>
+        <v>15.7</v>
       </c>
       <c r="AC64" t="n">
         <v>9.300000000000001</v>
@@ -8236,16 +8427,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ64" t="n">
-        <v>69.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="AL64" t="n">
         <v>92.2</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AM64" t="n">
         <v>37.7</v>
       </c>
-      <c r="AM64" t="n">
-        <v>84.8</v>
+      <c r="AN64" t="n">
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -8288,7 +8482,7 @@
         <v>49</v>
       </c>
       <c r="M65" t="n">
-        <v>17.6</v>
+        <v>16.7</v>
       </c>
       <c r="N65" t="n">
         <v>71.59999999999999</v>
@@ -8309,13 +8503,13 @@
         <v>18.1</v>
       </c>
       <c r="T65" t="n">
-        <v>53.9</v>
+        <v>64.2</v>
       </c>
       <c r="U65" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="V65" t="n">
-        <v>12.3</v>
+        <v>10.8</v>
       </c>
       <c r="W65" t="n">
         <v>63.2</v>
@@ -8333,7 +8527,7 @@
         <v>46.1</v>
       </c>
       <c r="AB65" t="n">
-        <v>70.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC65" t="n">
         <v>77</v>
@@ -8357,16 +8551,19 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="n">
-        <v>17.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="AK65" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AL65" t="n">
         <v>75.5</v>
       </c>
-      <c r="AL65" t="n">
-        <v>95</v>
-      </c>
       <c r="AM65" t="n">
-        <v>36.3</v>
+        <v>95</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="66">
@@ -8430,13 +8627,13 @@
         <v>14.2</v>
       </c>
       <c r="T66" t="n">
-        <v>24.5</v>
+        <v>46.1</v>
       </c>
       <c r="U66" t="n">
         <v>71.09999999999999</v>
       </c>
       <c r="V66" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W66" t="n">
         <v>77.90000000000001</v>
@@ -8454,7 +8651,7 @@
         <v>73.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>69.59999999999999</v>
+        <v>60.8</v>
       </c>
       <c r="AC66" t="n">
         <v>77.90000000000001</v>
@@ -8478,15 +8675,18 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="n">
-        <v>44.1</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AK66" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AL66" t="n">
         <v>59.3</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>61.8</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>47.1</v>
       </c>
     </row>
@@ -8551,7 +8751,7 @@
         <v>39.2</v>
       </c>
       <c r="T67" t="n">
-        <v>40.7</v>
+        <v>21.1</v>
       </c>
       <c r="U67" t="n">
         <v>7.8</v>
@@ -8575,7 +8775,7 @@
         <v>55.4</v>
       </c>
       <c r="AB67" t="n">
-        <v>19.1</v>
+        <v>30.9</v>
       </c>
       <c r="AC67" t="n">
         <v>22.1</v>
@@ -8599,16 +8799,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ67" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="AN67" t="n">
         <v>30.9</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>33.3</v>
       </c>
     </row>
     <row r="68">
@@ -8627,7 +8830,7 @@
         <v>49</v>
       </c>
       <c r="E68" t="n">
-        <v>56.4</v>
+        <v>56.9</v>
       </c>
       <c r="F68" t="n">
         <v>10.3</v>
@@ -8651,7 +8854,7 @@
         <v>38.7</v>
       </c>
       <c r="M68" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N68" t="n">
         <v>21.1</v>
@@ -8672,13 +8875,13 @@
         <v>42.6</v>
       </c>
       <c r="T68" t="n">
-        <v>24.5</v>
+        <v>13.2</v>
       </c>
       <c r="U68" t="n">
         <v>52.5</v>
       </c>
       <c r="V68" t="n">
-        <v>34.8</v>
+        <v>36.8</v>
       </c>
       <c r="W68" t="n">
         <v>6.4</v>
@@ -8696,7 +8899,7 @@
         <v>23.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>17.2</v>
+        <v>95</v>
       </c>
       <c r="AC68" t="n">
         <v>66.2</v>
@@ -8720,16 +8923,19 @@
         <v>80.40000000000001</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.4</v>
+        <v>16.7</v>
       </c>
       <c r="AK68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AL68" t="n">
         <v>60.3</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>93.59999999999999</v>
       </c>
-      <c r="AM68" t="n">
-        <v>23</v>
+      <c r="AN68" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="69">
@@ -8793,13 +8999,13 @@
         <v>8.300000000000001</v>
       </c>
       <c r="T69" t="n">
-        <v>37.3</v>
+        <v>57.8</v>
       </c>
       <c r="U69" t="n">
         <v>30.4</v>
       </c>
       <c r="V69" t="n">
-        <v>35.8</v>
+        <v>34.8</v>
       </c>
       <c r="W69" t="n">
         <v>49</v>
@@ -8817,7 +9023,7 @@
         <v>74.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>45.1</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="n">
         <v>11.3</v>
@@ -8841,16 +9047,19 @@
         <v>92.2</v>
       </c>
       <c r="AJ69" t="n">
-        <v>61.3</v>
+        <v>45.1</v>
       </c>
       <c r="AK69" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AL69" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>39.2</v>
       </c>
-      <c r="AM69" t="n">
-        <v>67.2</v>
+      <c r="AN69" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -8911,10 +9120,10 @@
         <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="T70" t="n">
-        <v>5</v>
+        <v>52.9</v>
       </c>
       <c r="U70" t="n">
         <v>19.1</v>
@@ -8938,7 +9147,7 @@
         <v>39.7</v>
       </c>
       <c r="AB70" t="n">
-        <v>46.6</v>
+        <v>38.7</v>
       </c>
       <c r="AC70" t="n">
         <v>22.1</v>
@@ -8962,16 +9171,19 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AJ70" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AN70" t="n">
         <v>16.2</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>18.6</v>
       </c>
     </row>
     <row r="71">
@@ -9032,16 +9244,16 @@
         <v>27.5</v>
       </c>
       <c r="S71" t="n">
-        <v>47.1</v>
+        <v>46.1</v>
       </c>
       <c r="T71" t="n">
-        <v>31.4</v>
+        <v>82.8</v>
       </c>
       <c r="U71" t="n">
         <v>7.8</v>
       </c>
       <c r="V71" t="n">
-        <v>41.7</v>
+        <v>47.5</v>
       </c>
       <c r="W71" t="n">
         <v>5</v>
@@ -9059,7 +9271,7 @@
         <v>56.9</v>
       </c>
       <c r="AB71" t="n">
-        <v>5</v>
+        <v>66.7</v>
       </c>
       <c r="AC71" t="n">
         <v>22.1</v>
@@ -9083,16 +9295,19 @@
         <v>87.3</v>
       </c>
       <c r="AJ71" t="n">
-        <v>21.1</v>
+        <v>5.4</v>
       </c>
       <c r="AK71" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AL71" t="n">
         <v>12.3</v>
       </c>
-      <c r="AL71" t="n">
+      <c r="AM71" t="n">
         <v>74.5</v>
       </c>
-      <c r="AM71" t="n">
-        <v>11.8</v>
+      <c r="AN71" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="72">
@@ -9153,16 +9368,16 @@
         <v>46.6</v>
       </c>
       <c r="S72" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="T72" t="n">
-        <v>42.6</v>
+        <v>82.8</v>
       </c>
       <c r="U72" t="n">
         <v>7.8</v>
       </c>
       <c r="V72" t="n">
-        <v>91.2</v>
+        <v>91.7</v>
       </c>
       <c r="W72" t="n">
         <v>42.2</v>
@@ -9180,7 +9395,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB72" t="n">
-        <v>51</v>
+        <v>21.1</v>
       </c>
       <c r="AC72" t="n">
         <v>22.1</v>
@@ -9204,16 +9419,19 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AJ72" t="n">
-        <v>83.8</v>
+        <v>51</v>
       </c>
       <c r="AK72" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AL72" t="n">
         <v>45.6</v>
       </c>
-      <c r="AL72" t="n">
+      <c r="AM72" t="n">
         <v>10.8</v>
       </c>
-      <c r="AM72" t="n">
-        <v>70.09999999999999</v>
+      <c r="AN72" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="73">
@@ -9232,7 +9450,7 @@
         <v>95</v>
       </c>
       <c r="E73" t="n">
-        <v>41.7</v>
+        <v>42.2</v>
       </c>
       <c r="F73" t="n">
         <v>80.40000000000001</v>
@@ -9256,7 +9474,7 @@
         <v>56.9</v>
       </c>
       <c r="M73" t="n">
-        <v>69.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="N73" t="n">
         <v>88.7</v>
@@ -9277,13 +9495,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="T73" t="n">
-        <v>48.5</v>
+        <v>5.4</v>
       </c>
       <c r="U73" t="n">
         <v>77.5</v>
       </c>
       <c r="V73" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="W73" t="n">
         <v>75</v>
@@ -9301,7 +9519,7 @@
         <v>87.7</v>
       </c>
       <c r="AB73" t="n">
-        <v>94.59999999999999</v>
+        <v>44.6</v>
       </c>
       <c r="AC73" t="n">
         <v>85.3</v>
@@ -9325,16 +9543,19 @@
         <v>88.2</v>
       </c>
       <c r="AJ73" t="n">
-        <v>58.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AK73" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AL73" t="n">
         <v>89.2</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AM73" t="n">
         <v>91.7</v>
       </c>
-      <c r="AM73" t="n">
-        <v>73</v>
+      <c r="AN73" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -9395,16 +9616,16 @@
         <v>65.7</v>
       </c>
       <c r="S74" t="n">
-        <v>84.8</v>
+        <v>84.3</v>
       </c>
       <c r="T74" t="n">
-        <v>63.2</v>
+        <v>14.2</v>
       </c>
       <c r="U74" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="V74" t="n">
-        <v>42.6</v>
+        <v>40.7</v>
       </c>
       <c r="W74" t="n">
         <v>52</v>
@@ -9422,7 +9643,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="AB74" t="n">
-        <v>44.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AC74" t="n">
         <v>85.3</v>
@@ -9446,16 +9667,19 @@
         <v>89.7</v>
       </c>
       <c r="AJ74" t="n">
-        <v>67.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="AK74" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="AL74" t="n">
         <v>31.9</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>35.8</v>
       </c>
-      <c r="AM74" t="n">
-        <v>51.5</v>
+      <c r="AN74" t="n">
+        <v>50.5</v>
       </c>
     </row>
     <row r="75">
@@ -9519,13 +9743,13 @@
         <v>33.8</v>
       </c>
       <c r="T75" t="n">
-        <v>66.2</v>
+        <v>82.8</v>
       </c>
       <c r="U75" t="n">
         <v>53.9</v>
       </c>
       <c r="V75" t="n">
-        <v>59.3</v>
+        <v>57.4</v>
       </c>
       <c r="W75" t="n">
         <v>11.8</v>
@@ -9543,7 +9767,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="AB75" t="n">
-        <v>14.2</v>
+        <v>26.5</v>
       </c>
       <c r="AC75" t="n">
         <v>22.1</v>
@@ -9567,16 +9791,19 @@
         <v>91.2</v>
       </c>
       <c r="AJ75" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AK75" t="n">
         <v>54.9</v>
       </c>
-      <c r="AK75" t="n">
+      <c r="AL75" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AM75" t="n">
         <v>40.7</v>
       </c>
-      <c r="AM75" t="n">
-        <v>69.09999999999999</v>
+      <c r="AN75" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="76">
@@ -9640,13 +9867,13 @@
         <v>27.9</v>
       </c>
       <c r="T76" t="n">
-        <v>6.4</v>
+        <v>22.1</v>
       </c>
       <c r="U76" t="n">
         <v>61.8</v>
       </c>
       <c r="V76" t="n">
-        <v>62.7</v>
+        <v>62.3</v>
       </c>
       <c r="W76" t="n">
         <v>52</v>
@@ -9664,7 +9891,7 @@
         <v>65.7</v>
       </c>
       <c r="AB76" t="n">
-        <v>41.2</v>
+        <v>52.9</v>
       </c>
       <c r="AC76" t="n">
         <v>62.7</v>
@@ -9688,16 +9915,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ76" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AK76" t="n">
         <v>19.1</v>
       </c>
-      <c r="AK76" t="n">
+      <c r="AL76" t="n">
         <v>18.6</v>
       </c>
-      <c r="AL76" t="n">
+      <c r="AM76" t="n">
         <v>46.1</v>
       </c>
-      <c r="AM76" t="n">
-        <v>13.7</v>
+      <c r="AN76" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="77">
@@ -9761,13 +9991,13 @@
         <v>27</v>
       </c>
       <c r="T77" t="n">
-        <v>5</v>
+        <v>82.8</v>
       </c>
       <c r="U77" t="n">
         <v>48.5</v>
       </c>
       <c r="V77" t="n">
-        <v>48.5</v>
+        <v>52.9</v>
       </c>
       <c r="W77" t="n">
         <v>59.8</v>
@@ -9785,7 +10015,7 @@
         <v>51</v>
       </c>
       <c r="AB77" t="n">
-        <v>37.7</v>
+        <v>65.7</v>
       </c>
       <c r="AC77" t="n">
         <v>57.4</v>
@@ -9809,16 +10039,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ77" t="n">
-        <v>5</v>
+        <v>37.7</v>
       </c>
       <c r="AK77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL77" t="n">
         <v>21.1</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>12.7</v>
       </c>
       <c r="AM77" t="n">
         <v>12.7</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="78">
@@ -9879,16 +10112,16 @@
         <v>10.3</v>
       </c>
       <c r="S78" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="T78" t="n">
-        <v>6.9</v>
+        <v>82.8</v>
       </c>
       <c r="U78" t="n">
         <v>39.2</v>
       </c>
       <c r="V78" t="n">
-        <v>66.2</v>
+        <v>63.2</v>
       </c>
       <c r="W78" t="n">
         <v>27.9</v>
@@ -9906,7 +10139,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB78" t="n">
-        <v>30.9</v>
+        <v>24</v>
       </c>
       <c r="AC78" t="n">
         <v>41.2</v>
@@ -9930,16 +10163,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ78" t="n">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="AK78" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL78" t="n">
         <v>26</v>
       </c>
-      <c r="AL78" t="n">
+      <c r="AM78" t="n">
         <v>45.1</v>
       </c>
-      <c r="AM78" t="n">
-        <v>23.5</v>
+      <c r="AN78" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="79">
@@ -9982,7 +10218,7 @@
         <v>36.8</v>
       </c>
       <c r="M79" t="n">
-        <v>16.7</v>
+        <v>17.6</v>
       </c>
       <c r="N79" t="n">
         <v>44.1</v>
@@ -10000,16 +10236,16 @@
         <v>53.9</v>
       </c>
       <c r="S79" t="n">
-        <v>79.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="T79" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="U79" t="n">
         <v>47.5</v>
       </c>
       <c r="V79" t="n">
-        <v>60.8</v>
+        <v>61.3</v>
       </c>
       <c r="W79" t="n">
         <v>28.9</v>
@@ -10027,7 +10263,7 @@
         <v>52</v>
       </c>
       <c r="AB79" t="n">
-        <v>15.2</v>
+        <v>85.3</v>
       </c>
       <c r="AC79" t="n">
         <v>55.4</v>
@@ -10051,16 +10287,19 @@
         <v>83.3</v>
       </c>
       <c r="AJ79" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AK79" t="n">
         <v>5.4</v>
       </c>
-      <c r="AK79" t="n">
+      <c r="AL79" t="n">
         <v>15.2</v>
       </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="AM79" t="n">
-        <v>6.9</v>
+      <c r="AN79" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="80">
@@ -10124,13 +10363,13 @@
         <v>60.3</v>
       </c>
       <c r="T80" t="n">
-        <v>13.7</v>
+        <v>16.2</v>
       </c>
       <c r="U80" t="n">
         <v>26.5</v>
       </c>
       <c r="V80" t="n">
-        <v>36.8</v>
+        <v>43.6</v>
       </c>
       <c r="W80" t="n">
         <v>19.1</v>
@@ -10148,7 +10387,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB80" t="n">
-        <v>6.9</v>
+        <v>90.7</v>
       </c>
       <c r="AC80" t="n">
         <v>44.6</v>
@@ -10172,15 +10411,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ80" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="AK80" t="n">
         <v>5</v>
       </c>
       <c r="AL80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM80" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="AM80" t="n">
+      <c r="AN80" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10245,13 +10487,13 @@
         <v>48.5</v>
       </c>
       <c r="T81" t="n">
-        <v>9.300000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="U81" t="n">
         <v>22.1</v>
       </c>
       <c r="V81" t="n">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
       <c r="W81" t="n">
         <v>57.8</v>
@@ -10269,7 +10511,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB81" t="n">
-        <v>25.5</v>
+        <v>50.5</v>
       </c>
       <c r="AC81" t="n">
         <v>39.2</v>
@@ -10293,15 +10535,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ81" t="n">
-        <v>15.2</v>
+        <v>25.5</v>
       </c>
       <c r="AK81" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AL81" t="n">
         <v>7.4</v>
       </c>
-      <c r="AL81" t="n">
+      <c r="AM81" t="n">
         <v>50.5</v>
       </c>
-      <c r="AM81" t="n">
+      <c r="AN81" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -10366,13 +10611,13 @@
         <v>61.3</v>
       </c>
       <c r="T82" t="n">
-        <v>17.2</v>
+        <v>23</v>
       </c>
       <c r="U82" t="n">
         <v>77</v>
       </c>
       <c r="V82" t="n">
-        <v>71.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="W82" t="n">
         <v>49.5</v>
@@ -10390,7 +10635,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="AB82" t="n">
-        <v>22.5</v>
+        <v>42.6</v>
       </c>
       <c r="AC82" t="n">
         <v>42.2</v>
@@ -10414,16 +10659,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AL82" t="n">
         <v>42.6</v>
       </c>
-      <c r="AK82" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="AL82" t="n">
+      <c r="AM82" t="n">
         <v>63.2</v>
       </c>
-      <c r="AM82" t="n">
-        <v>37.7</v>
+      <c r="AN82" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="83">
@@ -10484,16 +10732,16 @@
         <v>7.4</v>
       </c>
       <c r="S83" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="T83" t="n">
-        <v>11.8</v>
+        <v>24.5</v>
       </c>
       <c r="U83" t="n">
         <v>7.8</v>
       </c>
       <c r="V83" t="n">
-        <v>50.5</v>
+        <v>49</v>
       </c>
       <c r="W83" t="n">
         <v>32.8</v>
@@ -10511,7 +10759,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB83" t="n">
-        <v>30.4</v>
+        <v>56.4</v>
       </c>
       <c r="AC83" t="n">
         <v>22.1</v>
@@ -10535,15 +10783,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ83" t="n">
-        <v>6.4</v>
+        <v>30.4</v>
       </c>
       <c r="AK83" t="n">
         <v>5</v>
       </c>
       <c r="AL83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM83" t="n">
         <v>61.3</v>
       </c>
-      <c r="AM83" t="n">
+      <c r="AN83" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10608,13 +10859,13 @@
         <v>7.4</v>
       </c>
       <c r="T84" t="n">
-        <v>84.3</v>
+        <v>82.8</v>
       </c>
       <c r="U84" t="n">
         <v>25.5</v>
       </c>
       <c r="V84" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="W84" t="n">
         <v>67.59999999999999</v>
@@ -10632,7 +10883,7 @@
         <v>83.8</v>
       </c>
       <c r="AB84" t="n">
-        <v>68.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AC84" t="n">
         <v>5</v>
@@ -10656,16 +10907,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ84" t="n">
-        <v>31.9</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="AK84" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AL84" t="n">
         <v>86.3</v>
       </c>
-      <c r="AL84" t="n">
+      <c r="AM84" t="n">
         <v>77</v>
       </c>
-      <c r="AM84" t="n">
-        <v>53.4</v>
+      <c r="AN84" t="n">
+        <v>54.4</v>
       </c>
     </row>
     <row r="85">
@@ -10729,13 +10983,13 @@
         <v>77.5</v>
       </c>
       <c r="T85" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="U85" t="n">
         <v>50.5</v>
       </c>
       <c r="V85" t="n">
-        <v>52.5</v>
+        <v>55.4</v>
       </c>
       <c r="W85" t="n">
         <v>45.1</v>
@@ -10753,7 +11007,7 @@
         <v>58.3</v>
       </c>
       <c r="AB85" t="n">
-        <v>27.9</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC85" t="n">
         <v>63.7</v>
@@ -10777,15 +11031,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ85" t="n">
-        <v>9.300000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="AK85" t="n">
-        <v>5</v>
+        <v>14.7</v>
       </c>
       <c r="AL85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM85" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="AM85" t="n">
+      <c r="AN85" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10850,13 +11107,13 @@
         <v>90.7</v>
       </c>
       <c r="T86" t="n">
-        <v>61.3</v>
+        <v>27.9</v>
       </c>
       <c r="U86" t="n">
         <v>59.3</v>
       </c>
       <c r="V86" t="n">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="W86" t="n">
         <v>85.3</v>
@@ -10874,7 +11131,7 @@
         <v>42.6</v>
       </c>
       <c r="AB86" t="n">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC86" t="n">
         <v>71.09999999999999</v>
@@ -10898,16 +11155,19 @@
         <v>92.59999999999999</v>
       </c>
       <c r="AJ86" t="n">
-        <v>72.09999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AK86" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="AL86" t="n">
         <v>52.5</v>
       </c>
-      <c r="AL86" t="n">
+      <c r="AM86" t="n">
         <v>20.1</v>
       </c>
-      <c r="AM86" t="n">
-        <v>63.2</v>
+      <c r="AN86" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="87">
@@ -10968,16 +11228,16 @@
         <v>89.2</v>
       </c>
       <c r="S87" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="T87" t="n">
-        <v>72.09999999999999</v>
+        <v>45.1</v>
       </c>
       <c r="U87" t="n">
         <v>54.4</v>
       </c>
       <c r="V87" t="n">
-        <v>63.2</v>
+        <v>77</v>
       </c>
       <c r="W87" t="n">
         <v>9.800000000000001</v>
@@ -10995,7 +11255,7 @@
         <v>76.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>5</v>
+        <v>34.8</v>
       </c>
       <c r="AC87" t="n">
         <v>67.59999999999999</v>
@@ -11019,16 +11279,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ87" t="n">
-        <v>36.8</v>
+        <v>5</v>
       </c>
       <c r="AK87" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AL87" t="n">
         <v>20.1</v>
       </c>
-      <c r="AL87" t="n">
+      <c r="AM87" t="n">
         <v>49</v>
       </c>
-      <c r="AM87" t="n">
-        <v>29.4</v>
+      <c r="AN87" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="88">
@@ -11089,16 +11352,16 @@
         <v>6.4</v>
       </c>
       <c r="S88" t="n">
-        <v>36.8</v>
+        <v>37.3</v>
       </c>
       <c r="T88" t="n">
-        <v>15.7</v>
+        <v>37.3</v>
       </c>
       <c r="U88" t="n">
         <v>26.5</v>
       </c>
       <c r="V88" t="n">
-        <v>53.4</v>
+        <v>51.5</v>
       </c>
       <c r="W88" t="n">
         <v>5</v>
@@ -11116,7 +11379,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB88" t="n">
-        <v>5</v>
+        <v>45.6</v>
       </c>
       <c r="AC88" t="n">
         <v>43.6</v>
@@ -11140,16 +11403,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ88" t="n">
-        <v>22.1</v>
+        <v>5</v>
       </c>
       <c r="AK88" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AL88" t="n">
         <v>28.9</v>
       </c>
-      <c r="AL88" t="n">
+      <c r="AM88" t="n">
         <v>66.2</v>
       </c>
-      <c r="AM88" t="n">
-        <v>20.1</v>
+      <c r="AN88" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="89">
@@ -11210,10 +11476,10 @@
         <v>13.2</v>
       </c>
       <c r="S89" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="T89" t="n">
-        <v>5</v>
+        <v>82.8</v>
       </c>
       <c r="U89" t="n">
         <v>7.8</v>
@@ -11237,7 +11503,7 @@
         <v>38.7</v>
       </c>
       <c r="AB89" t="n">
-        <v>61.3</v>
+        <v>46.6</v>
       </c>
       <c r="AC89" t="n">
         <v>22.1</v>
@@ -11261,15 +11527,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ89" t="n">
-        <v>39.7</v>
+        <v>61.3</v>
       </c>
       <c r="AK89" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AL89" t="n">
         <v>22.1</v>
       </c>
-      <c r="AL89" t="n">
+      <c r="AM89" t="n">
         <v>27.5</v>
       </c>
-      <c r="AM89" t="n">
+      <c r="AN89" t="n">
         <v>32.4</v>
       </c>
     </row>
@@ -11334,13 +11603,13 @@
         <v>68.09999999999999</v>
       </c>
       <c r="T90" t="n">
-        <v>69.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="U90" t="n">
         <v>37.3</v>
       </c>
       <c r="V90" t="n">
-        <v>44.6</v>
+        <v>42.6</v>
       </c>
       <c r="W90" t="n">
         <v>85.3</v>
@@ -11358,7 +11627,7 @@
         <v>24</v>
       </c>
       <c r="AB90" t="n">
-        <v>54.4</v>
+        <v>48.5</v>
       </c>
       <c r="AC90" t="n">
         <v>5</v>
@@ -11382,15 +11651,18 @@
         <v>95</v>
       </c>
       <c r="AJ90" t="n">
-        <v>20.1</v>
+        <v>54.9</v>
       </c>
       <c r="AK90" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AL90" t="n">
         <v>33.8</v>
       </c>
-      <c r="AL90" t="n">
+      <c r="AM90" t="n">
         <v>52</v>
       </c>
-      <c r="AM90" t="n">
+      <c r="AN90" t="n">
         <v>24.5</v>
       </c>
     </row>
@@ -11452,16 +11724,16 @@
         <v>79.40000000000001</v>
       </c>
       <c r="S91" t="n">
-        <v>66.7</v>
+        <v>65.7</v>
       </c>
       <c r="T91" t="n">
-        <v>55.9</v>
+        <v>82.8</v>
       </c>
       <c r="U91" t="n">
         <v>44.6</v>
       </c>
       <c r="V91" t="n">
-        <v>87.3</v>
+        <v>88.2</v>
       </c>
       <c r="W91" t="n">
         <v>23.5</v>
@@ -11479,7 +11751,7 @@
         <v>47.1</v>
       </c>
       <c r="AB91" t="n">
-        <v>32.4</v>
+        <v>31.4</v>
       </c>
       <c r="AC91" t="n">
         <v>22.1</v>
@@ -11503,16 +11775,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ91" t="n">
-        <v>67.59999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="AK91" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AL91" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AL91" t="n">
+      <c r="AM91" t="n">
         <v>21.6</v>
       </c>
-      <c r="AM91" t="n">
-        <v>39.2</v>
+      <c r="AN91" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="92">
@@ -11576,13 +11851,13 @@
         <v>62.3</v>
       </c>
       <c r="T92" t="n">
-        <v>20.1</v>
+        <v>33.8</v>
       </c>
       <c r="U92" t="n">
         <v>33.3</v>
       </c>
       <c r="V92" t="n">
-        <v>56.9</v>
+        <v>58.3</v>
       </c>
       <c r="W92" t="n">
         <v>5</v>
@@ -11600,7 +11875,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="AB92" t="n">
-        <v>5</v>
+        <v>87.3</v>
       </c>
       <c r="AC92" t="n">
         <v>47.5</v>
@@ -11624,16 +11899,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ92" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AK92" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL92" t="n">
         <v>27.9</v>
       </c>
-      <c r="AL92" t="n">
+      <c r="AM92" t="n">
         <v>65.7</v>
       </c>
-      <c r="AM92" t="n">
-        <v>21.6</v>
+      <c r="AN92" t="n">
+        <v>20.1</v>
       </c>
     </row>
     <row r="93">
@@ -11697,7 +11975,7 @@
         <v>43.6</v>
       </c>
       <c r="T93" t="n">
-        <v>77</v>
+        <v>82.8</v>
       </c>
       <c r="U93" t="n">
         <v>55.9</v>
@@ -11721,7 +11999,7 @@
         <v>85.8</v>
       </c>
       <c r="AB93" t="n">
-        <v>8.300000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="AC93" t="n">
         <v>69.59999999999999</v>
@@ -11745,16 +12023,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ93" t="n">
-        <v>32.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AK93" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="AL93" t="n">
         <v>51.5</v>
       </c>
-      <c r="AL93" t="n">
+      <c r="AM93" t="n">
         <v>74</v>
       </c>
-      <c r="AM93" t="n">
-        <v>34.8</v>
+      <c r="AN93" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="94">
@@ -11818,13 +12099,13 @@
         <v>6.4</v>
       </c>
       <c r="T94" t="n">
-        <v>30.4</v>
+        <v>49</v>
       </c>
       <c r="U94" t="n">
         <v>42.2</v>
       </c>
       <c r="V94" t="n">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="W94" t="n">
         <v>35.3</v>
@@ -11842,7 +12123,7 @@
         <v>79.90000000000001</v>
       </c>
       <c r="AB94" t="n">
-        <v>28.9</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AC94" t="n">
         <v>54.4</v>
@@ -11866,16 +12147,19 @@
         <v>84.8</v>
       </c>
       <c r="AJ94" t="n">
-        <v>14.2</v>
+        <v>28.9</v>
       </c>
       <c r="AK94" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="AL94" t="n">
         <v>43.6</v>
       </c>
-      <c r="AL94" t="n">
+      <c r="AM94" t="n">
         <v>86.8</v>
       </c>
-      <c r="AM94" t="n">
-        <v>21.1</v>
+      <c r="AN94" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="95">
@@ -11939,13 +12223,13 @@
         <v>12.3</v>
       </c>
       <c r="T95" t="n">
-        <v>5</v>
+        <v>10.3</v>
       </c>
       <c r="U95" t="n">
         <v>35.3</v>
       </c>
       <c r="V95" t="n">
-        <v>80.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="W95" t="n">
         <v>76</v>
@@ -11963,7 +12247,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB95" t="n">
-        <v>74</v>
+        <v>30.4</v>
       </c>
       <c r="AC95" t="n">
         <v>50</v>
@@ -11987,16 +12271,19 @@
         <v>86.8</v>
       </c>
       <c r="AJ95" t="n">
-        <v>34.8</v>
+        <v>74</v>
       </c>
       <c r="AK95" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="AL95" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="AL95" t="n">
+      <c r="AM95" t="n">
         <v>26</v>
       </c>
-      <c r="AM95" t="n">
-        <v>54.4</v>
+      <c r="AN95" t="n">
+        <v>53.4</v>
       </c>
     </row>
     <row r="96">
@@ -12060,13 +12347,13 @@
         <v>64.2</v>
       </c>
       <c r="T96" t="n">
-        <v>28.4</v>
+        <v>34.3</v>
       </c>
       <c r="U96" t="n">
         <v>29.4</v>
       </c>
       <c r="V96" t="n">
-        <v>69.09999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="W96" t="n">
         <v>9.300000000000001</v>
@@ -12084,7 +12371,7 @@
         <v>65.7</v>
       </c>
       <c r="AB96" t="n">
-        <v>5</v>
+        <v>52.9</v>
       </c>
       <c r="AC96" t="n">
         <v>46.1</v>
@@ -12108,16 +12395,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ96" t="n">
-        <v>13.2</v>
+        <v>5</v>
       </c>
       <c r="AK96" t="n">
         <v>11.3</v>
       </c>
       <c r="AL96" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AM96" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="AM96" t="n">
-        <v>8.300000000000001</v>
+      <c r="AN96" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -12178,16 +12468,16 @@
         <v>22.1</v>
       </c>
       <c r="S97" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="T97" t="n">
-        <v>17.6</v>
+        <v>82.8</v>
       </c>
       <c r="U97" t="n">
         <v>35.8</v>
       </c>
       <c r="V97" t="n">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="W97" t="n">
         <v>18.6</v>
@@ -12205,7 +12495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="AB97" t="n">
-        <v>22.5</v>
+        <v>77.5</v>
       </c>
       <c r="AC97" t="n">
         <v>50.5</v>
@@ -12229,15 +12519,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ97" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AK97" t="n">
-        <v>5</v>
+        <v>28.9</v>
       </c>
       <c r="AL97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM97" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="AM97" t="n">
+      <c r="AN97" t="n">
         <v>5.9</v>
       </c>
     </row>
@@ -12302,7 +12595,7 @@
         <v>44.1</v>
       </c>
       <c r="T98" t="n">
-        <v>33.3</v>
+        <v>82.8</v>
       </c>
       <c r="U98" t="n">
         <v>7.8</v>
@@ -12326,7 +12619,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB98" t="n">
-        <v>11.3</v>
+        <v>74.5</v>
       </c>
       <c r="AC98" t="n">
         <v>22.1</v>
@@ -12350,15 +12643,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ98" t="n">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="AK98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL98" t="n">
         <v>14.2</v>
       </c>
-      <c r="AL98" t="n">
+      <c r="AM98" t="n">
         <v>88.2</v>
       </c>
-      <c r="AM98" t="n">
+      <c r="AN98" t="n">
         <v>5</v>
       </c>
     </row>
@@ -12423,13 +12719,13 @@
         <v>13.2</v>
       </c>
       <c r="T99" t="n">
-        <v>27</v>
+        <v>46.6</v>
       </c>
       <c r="U99" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="V99" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="W99" t="n">
         <v>81.90000000000001</v>
@@ -12447,7 +12743,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AB99" t="n">
-        <v>43.1</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AC99" t="n">
         <v>56.4</v>
@@ -12471,15 +12767,18 @@
         <v>36.8</v>
       </c>
       <c r="AJ99" t="n">
-        <v>48</v>
+        <v>43.1</v>
       </c>
       <c r="AK99" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="AL99" t="n">
         <v>27</v>
       </c>
-      <c r="AL99" t="n">
+      <c r="AM99" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="AM99" t="n">
+      <c r="AN99" t="n">
         <v>33.8</v>
       </c>
     </row>
@@ -12541,16 +12840,16 @@
         <v>18.1</v>
       </c>
       <c r="S100" t="n">
-        <v>57.4</v>
+        <v>57.8</v>
       </c>
       <c r="T100" t="n">
-        <v>22.5</v>
+        <v>30.9</v>
       </c>
       <c r="U100" t="n">
         <v>62.7</v>
       </c>
       <c r="V100" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W100" t="n">
         <v>5</v>
@@ -12568,7 +12867,7 @@
         <v>36.8</v>
       </c>
       <c r="AB100" t="n">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="AC100" t="n">
         <v>73.5</v>
@@ -12592,16 +12891,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ100" t="n">
-        <v>51.5</v>
+        <v>10.3</v>
       </c>
       <c r="AK100" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AL100" t="n">
         <v>48.5</v>
       </c>
-      <c r="AL100" t="n">
+      <c r="AM100" t="n">
         <v>58.8</v>
       </c>
-      <c r="AM100" t="n">
-        <v>49</v>
+      <c r="AN100" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="101">
@@ -12665,13 +12967,13 @@
         <v>52</v>
       </c>
       <c r="T101" t="n">
-        <v>34.3</v>
+        <v>35.8</v>
       </c>
       <c r="U101" t="n">
         <v>63.2</v>
       </c>
       <c r="V101" t="n">
-        <v>65.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="W101" t="n">
         <v>16.7</v>
@@ -12689,7 +12991,7 @@
         <v>64.2</v>
       </c>
       <c r="AB101" t="n">
-        <v>13.7</v>
+        <v>64.2</v>
       </c>
       <c r="AC101" t="n">
         <v>72.09999999999999</v>
@@ -12713,16 +13015,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ101" t="n">
-        <v>23</v>
+        <v>13.2</v>
       </c>
       <c r="AK101" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AL101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM101" t="n">
         <v>85.8</v>
       </c>
-      <c r="AM101" t="n">
-        <v>7.4</v>
+      <c r="AN101" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="102">
@@ -12783,16 +13088,16 @@
         <v>44.1</v>
       </c>
       <c r="S102" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="T102" t="n">
-        <v>57.4</v>
+        <v>82.8</v>
       </c>
       <c r="U102" t="n">
         <v>57.8</v>
       </c>
       <c r="V102" t="n">
-        <v>87.3</v>
+        <v>86.3</v>
       </c>
       <c r="W102" t="n">
         <v>84.3</v>
@@ -12810,7 +13115,7 @@
         <v>26</v>
       </c>
       <c r="AB102" t="n">
-        <v>82.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="AC102" t="n">
         <v>70.09999999999999</v>
@@ -12834,16 +13139,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ102" t="n">
-        <v>74.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="AK102" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AL102" t="n">
         <v>34.8</v>
       </c>
-      <c r="AL102" t="n">
-        <v>5</v>
-      </c>
       <c r="AM102" t="n">
-        <v>62.3</v>
+        <v>5</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>57.4</v>
       </c>
     </row>
     <row r="103">
@@ -12904,16 +13212,16 @@
         <v>48.5</v>
       </c>
       <c r="S103" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="T103" t="n">
-        <v>31.9</v>
+        <v>48</v>
       </c>
       <c r="U103" t="n">
         <v>33.3</v>
       </c>
       <c r="V103" t="n">
-        <v>85.8</v>
+        <v>85.3</v>
       </c>
       <c r="W103" t="n">
         <v>26</v>
@@ -12931,7 +13239,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB103" t="n">
-        <v>12.7</v>
+        <v>14.2</v>
       </c>
       <c r="AC103" t="n">
         <v>49</v>
@@ -12955,16 +13263,19 @@
         <v>36.8</v>
       </c>
       <c r="AJ103" t="n">
-        <v>35.8</v>
+        <v>12.7</v>
       </c>
       <c r="AK103" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="AL103" t="n">
         <v>24</v>
       </c>
-      <c r="AL103" t="n">
+      <c r="AM103" t="n">
         <v>60.8</v>
       </c>
-      <c r="AM103" t="n">
-        <v>27.5</v>
+      <c r="AN103" t="n">
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -751,7 +751,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="3">
@@ -2611,7 +2611,7 @@
         <v>52</v>
       </c>
       <c r="AN17" t="n">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="18">
@@ -2859,7 +2859,7 @@
         <v>37.3</v>
       </c>
       <c r="AN19" t="n">
-        <v>63.2</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="20">
@@ -4595,7 +4595,7 @@
         <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="34">
@@ -5587,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="AN41" t="n">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="42">
@@ -5835,7 +5835,7 @@
         <v>55.9</v>
       </c>
       <c r="AN43" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="44">
@@ -7819,7 +7819,7 @@
         <v>81.40000000000001</v>
       </c>
       <c r="AN59" t="n">
-        <v>45.1</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="60">
@@ -8315,7 +8315,7 @@
         <v>49</v>
       </c>
       <c r="AN63" t="n">
-        <v>62.3</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="64">
@@ -8563,7 +8563,7 @@
         <v>95</v>
       </c>
       <c r="AN65" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="66">
@@ -8687,7 +8687,7 @@
         <v>61.8</v>
       </c>
       <c r="AN66" t="n">
-        <v>47.1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
@@ -8811,7 +8811,7 @@
         <v>89.2</v>
       </c>
       <c r="AN67" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="68">
@@ -9183,7 +9183,7 @@
         <v>26.5</v>
       </c>
       <c r="AN70" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="71">
@@ -9307,7 +9307,7 @@
         <v>74.5</v>
       </c>
       <c r="AN71" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="72">
@@ -9927,7 +9927,7 @@
         <v>46.1</v>
       </c>
       <c r="AN76" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="77">
@@ -10051,7 +10051,7 @@
         <v>12.7</v>
       </c>
       <c r="AN77" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="78">
@@ -10175,7 +10175,7 @@
         <v>45.1</v>
       </c>
       <c r="AN78" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="79">
@@ -11663,7 +11663,7 @@
         <v>52</v>
       </c>
       <c r="AN90" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="91">
@@ -11911,7 +11911,7 @@
         <v>65.7</v>
       </c>
       <c r="AN92" t="n">
-        <v>20.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="93">
@@ -12779,7 +12779,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="AN99" t="n">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="100">
@@ -12903,7 +12903,7 @@
         <v>58.8</v>
       </c>
       <c r="AN100" t="n">
-        <v>42.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="101">

--- a/output/comp_percentile_rank_dog.xlsx
+++ b/output/comp_percentile_rank_dog.xlsx
@@ -869,7 +869,7 @@
         <v>75.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>18.1</v>
+        <v>17.2</v>
       </c>
       <c r="AM3" t="n">
         <v>18.1</v>
@@ -993,7 +993,7 @@
         <v>77.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AM4" t="n">
         <v>64.7</v>
@@ -1117,13 +1117,13 @@
         <v>24.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>62.7</v>
+        <v>59.8</v>
       </c>
       <c r="AM5" t="n">
         <v>19.1</v>
       </c>
       <c r="AN5" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="6">
@@ -1241,13 +1241,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>82.8</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="7">
@@ -1365,13 +1365,13 @@
         <v>44.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.2</v>
+        <v>11.3</v>
       </c>
       <c r="AM7" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="AN7" t="n">
-        <v>22.5</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>54.4</v>
       </c>
       <c r="AN8" t="n">
-        <v>84.8</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="9">
@@ -1613,13 +1613,13 @@
         <v>95</v>
       </c>
       <c r="AL9" t="n">
-        <v>47.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AM9" t="n">
         <v>5.4</v>
       </c>
       <c r="AN9" t="n">
-        <v>88.7</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="10">
@@ -1861,13 +1861,13 @@
         <v>50.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>54.4</v>
+        <v>56.4</v>
       </c>
       <c r="AM11" t="n">
         <v>35.3</v>
       </c>
       <c r="AN11" t="n">
-        <v>49.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="12">
@@ -1985,13 +1985,13 @@
         <v>95</v>
       </c>
       <c r="AL12" t="n">
-        <v>35.8</v>
+        <v>65.7</v>
       </c>
       <c r="AM12" t="n">
         <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>91.7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2109,13 +2109,13 @@
         <v>90.7</v>
       </c>
       <c r="AL13" t="n">
-        <v>62.7</v>
+        <v>73.5</v>
       </c>
       <c r="AM13" t="n">
         <v>32.8</v>
       </c>
       <c r="AN13" t="n">
-        <v>82.8</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="14">
@@ -2233,13 +2233,13 @@
         <v>73.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AM14" t="n">
         <v>39.7</v>
       </c>
       <c r="AN14" t="n">
-        <v>36.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="15">
@@ -2357,7 +2357,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="AL15" t="n">
-        <v>16.2</v>
+        <v>13.2</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
@@ -2481,13 +2481,13 @@
         <v>43.6</v>
       </c>
       <c r="AL16" t="n">
-        <v>66.7</v>
+        <v>63.7</v>
       </c>
       <c r="AM16" t="n">
         <v>43.6</v>
       </c>
       <c r="AN16" t="n">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="17">
@@ -2605,13 +2605,13 @@
         <v>78.90000000000001</v>
       </c>
       <c r="AL17" t="n">
-        <v>63.7</v>
+        <v>61.3</v>
       </c>
       <c r="AM17" t="n">
         <v>52</v>
       </c>
       <c r="AN17" t="n">
-        <v>72.5</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2853,7 +2853,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="AL19" t="n">
-        <v>61.8</v>
+        <v>58.3</v>
       </c>
       <c r="AM19" t="n">
         <v>37.3</v>
@@ -2977,13 +2977,13 @@
         <v>92.2</v>
       </c>
       <c r="AL20" t="n">
-        <v>74.5</v>
+        <v>75.5</v>
       </c>
       <c r="AM20" t="n">
         <v>57.4</v>
       </c>
       <c r="AN20" t="n">
-        <v>83.8</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="21">
@@ -3101,13 +3101,13 @@
         <v>74</v>
       </c>
       <c r="AL21" t="n">
-        <v>93.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="AM21" t="n">
         <v>32.4</v>
       </c>
       <c r="AN21" t="n">
-        <v>89.7</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="22">
@@ -3349,7 +3349,7 @@
         <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AM23" t="n">
         <v>81.90000000000001</v>
@@ -3473,13 +3473,13 @@
         <v>65.7</v>
       </c>
       <c r="AL24" t="n">
-        <v>83.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="AM24" t="n">
         <v>71.09999999999999</v>
       </c>
       <c r="AN24" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3597,7 +3597,7 @@
         <v>30.9</v>
       </c>
       <c r="AL25" t="n">
-        <v>46.6</v>
+        <v>43.6</v>
       </c>
       <c r="AM25" t="n">
         <v>72.5</v>
@@ -3721,13 +3721,13 @@
         <v>88.7</v>
       </c>
       <c r="AL26" t="n">
-        <v>87.7</v>
+        <v>89.7</v>
       </c>
       <c r="AM26" t="n">
         <v>5.9</v>
       </c>
       <c r="AN26" t="n">
-        <v>93.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3969,13 +3969,13 @@
         <v>92.2</v>
       </c>
       <c r="AL28" t="n">
-        <v>89.2</v>
+        <v>87.3</v>
       </c>
       <c r="AM28" t="n">
         <v>15.7</v>
       </c>
       <c r="AN28" t="n">
-        <v>95</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -4093,7 +4093,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="AL29" t="n">
-        <v>94.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AM29" t="n">
         <v>42.6</v>
@@ -4217,13 +4217,13 @@
         <v>66.7</v>
       </c>
       <c r="AL30" t="n">
-        <v>73.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="AM30" t="n">
         <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>61.3</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="31">
@@ -4347,7 +4347,7 @@
         <v>76</v>
       </c>
       <c r="AN31" t="n">
-        <v>68.09999999999999</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="32">
@@ -4465,7 +4465,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AL32" t="n">
-        <v>17.2</v>
+        <v>18.1</v>
       </c>
       <c r="AM32" t="n">
         <v>28.9</v>
@@ -4589,7 +4589,7 @@
         <v>61.3</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AM33" t="n">
         <v>95</v>
@@ -4713,13 +4713,13 @@
         <v>62.7</v>
       </c>
       <c r="AL34" t="n">
-        <v>53.4</v>
+        <v>48.5</v>
       </c>
       <c r="AM34" t="n">
         <v>53.4</v>
       </c>
       <c r="AN34" t="n">
-        <v>55.4</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="35">
@@ -4837,13 +4837,13 @@
         <v>86.8</v>
       </c>
       <c r="AL35" t="n">
-        <v>77.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AM35" t="n">
         <v>5</v>
       </c>
       <c r="AN35" t="n">
-        <v>90.7</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="36">
@@ -4961,7 +4961,7 @@
         <v>95</v>
       </c>
       <c r="AL36" t="n">
-        <v>85.3</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="n">
         <v>34.3</v>
@@ -5085,13 +5085,13 @@
         <v>81.90000000000001</v>
       </c>
       <c r="AL37" t="n">
-        <v>68.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="AM37" t="n">
         <v>24.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>81.90000000000001</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5209,13 +5209,13 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AL38" t="n">
-        <v>57.4</v>
+        <v>54.4</v>
       </c>
       <c r="AM38" t="n">
         <v>83.8</v>
       </c>
       <c r="AN38" t="n">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="39">
@@ -5333,7 +5333,7 @@
         <v>95</v>
       </c>
       <c r="AL39" t="n">
-        <v>44.6</v>
+        <v>55.4</v>
       </c>
       <c r="AM39" t="n">
         <v>12.7</v>
@@ -5457,13 +5457,13 @@
         <v>85.8</v>
       </c>
       <c r="AL40" t="n">
-        <v>49.5</v>
+        <v>47.5</v>
       </c>
       <c r="AM40" t="n">
         <v>13.7</v>
       </c>
       <c r="AN40" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -5581,13 +5581,13 @@
         <v>53.4</v>
       </c>
       <c r="AL41" t="n">
-        <v>69.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="AM41" t="n">
         <v>5</v>
       </c>
       <c r="AN41" t="n">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="42">
@@ -5705,13 +5705,13 @@
         <v>63.7</v>
       </c>
       <c r="AL42" t="n">
-        <v>90.7</v>
+        <v>86.3</v>
       </c>
       <c r="AM42" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AN42" t="n">
-        <v>85.8</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="43">
@@ -5829,13 +5829,13 @@
         <v>52</v>
       </c>
       <c r="AL43" t="n">
-        <v>69.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="AM43" t="n">
         <v>55.9</v>
       </c>
       <c r="AN43" t="n">
-        <v>58.8</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="44">
@@ -5953,13 +5953,13 @@
         <v>77</v>
       </c>
       <c r="AL44" t="n">
-        <v>58.3</v>
+        <v>53.4</v>
       </c>
       <c r="AM44" t="n">
         <v>17.2</v>
       </c>
       <c r="AN44" t="n">
-        <v>69.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -6077,13 +6077,13 @@
         <v>10.3</v>
       </c>
       <c r="AL45" t="n">
-        <v>86.3</v>
+        <v>83.8</v>
       </c>
       <c r="AM45" t="n">
         <v>58.3</v>
       </c>
       <c r="AN45" t="n">
-        <v>46.6</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="46">
@@ -6201,13 +6201,13 @@
         <v>55.9</v>
       </c>
       <c r="AL46" t="n">
-        <v>29.9</v>
+        <v>31.9</v>
       </c>
       <c r="AM46" t="n">
         <v>30.9</v>
       </c>
       <c r="AN46" t="n">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="47">
@@ -6325,13 +6325,13 @@
         <v>95</v>
       </c>
       <c r="AL47" t="n">
-        <v>56.4</v>
+        <v>52.5</v>
       </c>
       <c r="AM47" t="n">
         <v>5</v>
       </c>
       <c r="AN47" t="n">
-        <v>94.09999999999999</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="48">
@@ -6449,13 +6449,13 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AL48" t="n">
-        <v>82.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="AM48" t="n">
         <v>24</v>
       </c>
       <c r="AN48" t="n">
-        <v>92.59999999999999</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="49">
@@ -6573,7 +6573,7 @@
         <v>57.8</v>
       </c>
       <c r="AL49" t="n">
-        <v>65.7</v>
+        <v>62.7</v>
       </c>
       <c r="AM49" t="n">
         <v>10.8</v>
@@ -6697,13 +6697,13 @@
         <v>72.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>37.7</v>
+        <v>35.8</v>
       </c>
       <c r="AM50" t="n">
         <v>22.5</v>
       </c>
       <c r="AN50" t="n">
-        <v>58.3</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="51">
@@ -6821,13 +6821,13 @@
         <v>18.1</v>
       </c>
       <c r="AL51" t="n">
-        <v>40.7</v>
+        <v>36.8</v>
       </c>
       <c r="AM51" t="n">
         <v>95</v>
       </c>
       <c r="AN51" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="52">
@@ -6945,13 +6945,13 @@
         <v>76</v>
       </c>
       <c r="AL52" t="n">
-        <v>66.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AM52" t="n">
         <v>47.5</v>
       </c>
       <c r="AN52" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7193,7 +7193,7 @@
         <v>79.90000000000001</v>
       </c>
       <c r="AL54" t="n">
-        <v>50.5</v>
+        <v>46.6</v>
       </c>
       <c r="AM54" t="n">
         <v>7.8</v>
@@ -7323,7 +7323,7 @@
         <v>56.4</v>
       </c>
       <c r="AN55" t="n">
-        <v>41.2</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="56">
@@ -7441,7 +7441,7 @@
         <v>82.8</v>
       </c>
       <c r="AL56" t="n">
-        <v>36.8</v>
+        <v>33.8</v>
       </c>
       <c r="AM56" t="n">
         <v>67.59999999999999</v>
@@ -7565,13 +7565,13 @@
         <v>47.1</v>
       </c>
       <c r="AL57" t="n">
-        <v>39.7</v>
+        <v>37.7</v>
       </c>
       <c r="AM57" t="n">
         <v>46.1</v>
       </c>
       <c r="AN57" t="n">
-        <v>41.7</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="58">
@@ -7689,7 +7689,7 @@
         <v>47.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>92.2</v>
+        <v>90.7</v>
       </c>
       <c r="AM58" t="n">
         <v>16.7</v>
@@ -7813,7 +7813,7 @@
         <v>33.3</v>
       </c>
       <c r="AL59" t="n">
-        <v>71.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AM59" t="n">
         <v>81.40000000000001</v>
@@ -7937,7 +7937,7 @@
         <v>40.2</v>
       </c>
       <c r="AL60" t="n">
-        <v>75.5</v>
+        <v>74.5</v>
       </c>
       <c r="AM60" t="n">
         <v>41.7</v>
@@ -8061,7 +8061,7 @@
         <v>6.9</v>
       </c>
       <c r="AL61" t="n">
-        <v>41.7</v>
+        <v>40.7</v>
       </c>
       <c r="AM61" t="n">
         <v>84.8</v>
@@ -8185,7 +8185,7 @@
         <v>83.8</v>
       </c>
       <c r="AL62" t="n">
-        <v>79.40000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="AM62" t="n">
         <v>23</v>
@@ -8309,13 +8309,13 @@
         <v>49</v>
       </c>
       <c r="AL63" t="n">
-        <v>83.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="AM63" t="n">
         <v>49</v>
       </c>
       <c r="AN63" t="n">
-        <v>61.8</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="64">
@@ -8433,13 +8433,13 @@
         <v>55.4</v>
       </c>
       <c r="AL64" t="n">
-        <v>92.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AM64" t="n">
         <v>37.7</v>
       </c>
       <c r="AN64" t="n">
-        <v>80.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -8557,13 +8557,13 @@
         <v>21.1</v>
       </c>
       <c r="AL65" t="n">
-        <v>75.5</v>
+        <v>73.5</v>
       </c>
       <c r="AM65" t="n">
         <v>95</v>
       </c>
       <c r="AN65" t="n">
-        <v>40.2</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="66">
@@ -8681,13 +8681,13 @@
         <v>45.1</v>
       </c>
       <c r="AL66" t="n">
-        <v>59.3</v>
+        <v>57.4</v>
       </c>
       <c r="AM66" t="n">
         <v>61.8</v>
       </c>
       <c r="AN66" t="n">
-        <v>48</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="67">
@@ -8805,7 +8805,7 @@
         <v>27.5</v>
       </c>
       <c r="AL67" t="n">
-        <v>55.4</v>
+        <v>50.5</v>
       </c>
       <c r="AM67" t="n">
         <v>89.2</v>
@@ -8929,7 +8929,7 @@
         <v>12.3</v>
       </c>
       <c r="AL68" t="n">
-        <v>60.3</v>
+        <v>59.8</v>
       </c>
       <c r="AM68" t="n">
         <v>93.59999999999999</v>
@@ -9053,13 +9053,13 @@
         <v>66.7</v>
       </c>
       <c r="AL69" t="n">
-        <v>71.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AM69" t="n">
         <v>39.2</v>
       </c>
       <c r="AN69" t="n">
-        <v>70.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -9177,13 +9177,13 @@
         <v>13.2</v>
       </c>
       <c r="AL70" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM70" t="n">
         <v>26.5</v>
       </c>
       <c r="AN70" t="n">
-        <v>16.7</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="71">
@@ -9301,7 +9301,7 @@
         <v>22.1</v>
       </c>
       <c r="AL71" t="n">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="AM71" t="n">
         <v>74.5</v>
@@ -9425,13 +9425,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="AL72" t="n">
-        <v>45.6</v>
+        <v>49.5</v>
       </c>
       <c r="AM72" t="n">
         <v>10.8</v>
       </c>
       <c r="AN72" t="n">
-        <v>67.2</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="73">
@@ -9549,13 +9549,13 @@
         <v>58.8</v>
       </c>
       <c r="AL73" t="n">
-        <v>89.2</v>
+        <v>88.2</v>
       </c>
       <c r="AM73" t="n">
         <v>91.7</v>
       </c>
       <c r="AN73" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74">
@@ -9673,13 +9673,13 @@
         <v>69.59999999999999</v>
       </c>
       <c r="AL74" t="n">
-        <v>31.9</v>
+        <v>29.9</v>
       </c>
       <c r="AM74" t="n">
         <v>35.8</v>
       </c>
       <c r="AN74" t="n">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="75">
@@ -9797,7 +9797,7 @@
         <v>54.9</v>
       </c>
       <c r="AL75" t="n">
-        <v>80.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AM75" t="n">
         <v>40.7</v>
@@ -9921,7 +9921,7 @@
         <v>19.1</v>
       </c>
       <c r="AL76" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="AM76" t="n">
         <v>46.1</v>
@@ -10045,7 +10045,7 @@
         <v>5</v>
       </c>
       <c r="AL77" t="n">
-        <v>21.1</v>
+        <v>27.9</v>
       </c>
       <c r="AM77" t="n">
         <v>12.7</v>
@@ -10175,7 +10175,7 @@
         <v>45.1</v>
       </c>
       <c r="AN78" t="n">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="79">
@@ -10293,13 +10293,13 @@
         <v>5.4</v>
       </c>
       <c r="AL79" t="n">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="AM79" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AN79" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="80">
@@ -10541,13 +10541,13 @@
         <v>14.2</v>
       </c>
       <c r="AL81" t="n">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="AM81" t="n">
         <v>50.5</v>
       </c>
       <c r="AN81" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -10671,7 +10671,7 @@
         <v>63.2</v>
       </c>
       <c r="AN82" t="n">
-        <v>38.2</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="83">
@@ -10913,13 +10913,13 @@
         <v>33.8</v>
       </c>
       <c r="AL84" t="n">
-        <v>86.3</v>
+        <v>84.3</v>
       </c>
       <c r="AM84" t="n">
         <v>77</v>
       </c>
       <c r="AN84" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="85">
@@ -11161,13 +11161,13 @@
         <v>84.8</v>
       </c>
       <c r="AL86" t="n">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="AM86" t="n">
         <v>20.1</v>
       </c>
       <c r="AN86" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
@@ -11291,7 +11291,7 @@
         <v>49</v>
       </c>
       <c r="AN87" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -11415,7 +11415,7 @@
         <v>66.2</v>
       </c>
       <c r="AN88" t="n">
-        <v>19.1</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="89">
@@ -11533,7 +11533,7 @@
         <v>41.2</v>
       </c>
       <c r="AL89" t="n">
-        <v>22.1</v>
+        <v>25</v>
       </c>
       <c r="AM89" t="n">
         <v>27.5</v>
@@ -11657,13 +11657,13 @@
         <v>16.7</v>
       </c>
       <c r="AL90" t="n">
-        <v>33.8</v>
+        <v>34.8</v>
       </c>
       <c r="AM90" t="n">
         <v>52</v>
       </c>
       <c r="AN90" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="91">
@@ -11781,13 +11781,13 @@
         <v>64.7</v>
       </c>
       <c r="AL91" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AM91" t="n">
         <v>21.6</v>
       </c>
       <c r="AN91" t="n">
-        <v>38.2</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="92">
@@ -11905,13 +11905,13 @@
         <v>27</v>
       </c>
       <c r="AL92" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="AM92" t="n">
         <v>65.7</v>
       </c>
       <c r="AN92" t="n">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="93">
@@ -12029,13 +12029,13 @@
         <v>35.8</v>
       </c>
       <c r="AL93" t="n">
-        <v>51.5</v>
+        <v>45.6</v>
       </c>
       <c r="AM93" t="n">
         <v>74</v>
       </c>
       <c r="AN93" t="n">
-        <v>36.3</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="94">
@@ -12153,13 +12153,13 @@
         <v>16.2</v>
       </c>
       <c r="AL94" t="n">
-        <v>43.6</v>
+        <v>41.7</v>
       </c>
       <c r="AM94" t="n">
         <v>86.8</v>
       </c>
       <c r="AN94" t="n">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="95">
@@ -12277,7 +12277,7 @@
         <v>31.9</v>
       </c>
       <c r="AL95" t="n">
-        <v>78.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AM95" t="n">
         <v>26</v>
@@ -12401,13 +12401,13 @@
         <v>11.3</v>
       </c>
       <c r="AL96" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="AM96" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="AN96" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -12531,7 +12531,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="AN97" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="98">
@@ -12649,7 +12649,7 @@
         <v>5</v>
       </c>
       <c r="AL98" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="AM98" t="n">
         <v>88.2</v>
@@ -12773,7 +12773,7 @@
         <v>49.5</v>
       </c>
       <c r="AL99" t="n">
-        <v>27</v>
+        <v>21.1</v>
       </c>
       <c r="AM99" t="n">
         <v>68.59999999999999</v>
@@ -12897,7 +12897,7 @@
         <v>42.2</v>
       </c>
       <c r="AL100" t="n">
-        <v>48.5</v>
+        <v>44.6</v>
       </c>
       <c r="AM100" t="n">
         <v>58.8</v>
@@ -13027,7 +13027,7 @@
         <v>85.8</v>
       </c>
       <c r="AN101" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="102">
@@ -13145,13 +13145,13 @@
         <v>60.3</v>
       </c>
       <c r="AL102" t="n">
-        <v>34.8</v>
+        <v>39.7</v>
       </c>
       <c r="AM102" t="n">
         <v>5</v>
       </c>
       <c r="AN102" t="n">
-        <v>57.4</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="103">
@@ -13269,13 +13269,13 @@
         <v>29.9</v>
       </c>
       <c r="AL103" t="n">
-        <v>24</v>
+        <v>22.1</v>
       </c>
       <c r="AM103" t="n">
         <v>60.8</v>
       </c>
       <c r="AN103" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
